--- a/log/c670_wt_log.xlsx
+++ b/log/c670_wt_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Hydrogen_wt%</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>test001</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CE2"/>
+  <dimension ref="A1:CE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1125,6 +1128,257 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:83">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>8.810025404738826e-07</v>
+      </c>
+      <c r="D3">
+        <v>3.20651733090335e-05</v>
+      </c>
+      <c r="E3">
+        <v>2.060681882747131e-05</v>
+      </c>
+      <c r="F3">
+        <v>8.854212785768177e-24</v>
+      </c>
+      <c r="G3">
+        <v>2.872169437856615e-16</v>
+      </c>
+      <c r="H3">
+        <v>2.34810032187487e-09</v>
+      </c>
+      <c r="I3">
+        <v>0.3073484158406281</v>
+      </c>
+      <c r="J3">
+        <v>0.000255970561251183</v>
+      </c>
+      <c r="K3">
+        <v>0.004889431905261426</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.02254561053437575</v>
+      </c>
+      <c r="N3">
+        <v>99.61976161194913</v>
+      </c>
+      <c r="O3">
+        <v>0.0294886973657646</v>
+      </c>
+      <c r="P3">
+        <v>0.004691801061970121</v>
+      </c>
+      <c r="Q3">
+        <v>0.0009016052425363053</v>
+      </c>
+      <c r="R3">
+        <v>0.006317235666781553</v>
+      </c>
+      <c r="S3">
+        <v>0.001785747040530392</v>
+      </c>
+      <c r="T3">
+        <v>0.001934053484364809</v>
+      </c>
+      <c r="U3">
+        <v>5.348397701224534e-06</v>
+      </c>
+      <c r="V3">
+        <v>3.380232847271107e-06</v>
+      </c>
+      <c r="W3">
+        <v>2.261155807035869e-12</v>
+      </c>
+      <c r="X3">
+        <v>1.643665352451686e-10</v>
+      </c>
+      <c r="Y3">
+        <v>4.868349340111096e-15</v>
+      </c>
+      <c r="Z3">
+        <v>7.12648172032782e-12</v>
+      </c>
+      <c r="AA3">
+        <v>1.455858581773943e-12</v>
+      </c>
+      <c r="AB3">
+        <v>3.012320222539562e-14</v>
+      </c>
+      <c r="AC3">
+        <v>3.666219889573634e-13</v>
+      </c>
+      <c r="AD3">
+        <v>4.216705251223171e-16</v>
+      </c>
+      <c r="AE3">
+        <v>5.493270924261408e-16</v>
+      </c>
+      <c r="AF3">
+        <v>8.808582308025432e-20</v>
+      </c>
+      <c r="AG3">
+        <v>4.620592110582473e-21</v>
+      </c>
+      <c r="AH3">
+        <v>6.267485962185109e-20</v>
+      </c>
+      <c r="AI3">
+        <v>1.119132898742129e-20</v>
+      </c>
+      <c r="AJ3">
+        <v>1.045882473129972e-22</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1.297722441663893e-05</v>
+      </c>
+      <c r="AM3">
+        <v>3.400928277579207e-06</v>
+      </c>
+      <c r="AN3">
+        <v>1.157045789852636e-06</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>7.544068337120796e-12</v>
+      </c>
+      <c r="AS3">
+        <v>2.49336626744555e-10</v>
+      </c>
+      <c r="AT3">
+        <v>2.552489669079598e-10</v>
+      </c>
+      <c r="AU3">
+        <v>9.804381928406343e-29</v>
+      </c>
+      <c r="AV3">
+        <v>2.374024040921963e-21</v>
+      </c>
+      <c r="AW3">
+        <v>1.940011954242065e-14</v>
+      </c>
+      <c r="AX3">
+        <v>1.001859937415231e-09</v>
+      </c>
+      <c r="AY3">
+        <v>2.790860724288951e-12</v>
+      </c>
+      <c r="AZ3">
+        <v>5.929950735824826e-10</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>2.700830111345916e-07</v>
+      </c>
+      <c r="BC3">
+        <v>0.0199195987228475</v>
+      </c>
+      <c r="BD3">
+        <v>5.295983005694929e-05</v>
+      </c>
+      <c r="BE3">
+        <v>0.03414932770691748</v>
+      </c>
+      <c r="BF3">
+        <v>0.03565214926481568</v>
+      </c>
+      <c r="BG3">
+        <v>4.797944575707584</v>
+      </c>
+      <c r="BH3">
+        <v>16.58660499882262</v>
+      </c>
+      <c r="BI3">
+        <v>35.69575577952992</v>
+      </c>
+      <c r="BJ3">
+        <v>14.23135489662986</v>
+      </c>
+      <c r="BK3">
+        <v>0.06556422062690234</v>
+      </c>
+      <c r="BL3">
+        <v>0.01176131932191869</v>
+      </c>
+      <c r="BM3">
+        <v>0.08457314318746574</v>
+      </c>
+      <c r="BN3">
+        <v>0.01372153768693965</v>
+      </c>
+      <c r="BO3">
+        <v>1.926057918245893</v>
+      </c>
+      <c r="BP3">
+        <v>1.010635138912966</v>
+      </c>
+      <c r="BQ3">
+        <v>5.110574407875806</v>
+      </c>
+      <c r="BR3">
+        <v>0.568000592485095</v>
+      </c>
+      <c r="BS3">
+        <v>13.03891700027889</v>
+      </c>
+      <c r="BT3">
+        <v>0.006252439423749132</v>
+      </c>
+      <c r="BU3">
+        <v>2.08175332990543</v>
+      </c>
+      <c r="BV3">
+        <v>0.06860767857944705</v>
+      </c>
+      <c r="BW3">
+        <v>0.02845547807932594</v>
+      </c>
+      <c r="BX3">
+        <v>0.0516868612824437</v>
+      </c>
+      <c r="BY3">
+        <v>1.762237397492754</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>2.026849832576904</v>
+      </c>
+      <c r="CB3">
+        <v>0.519453660943012</v>
+      </c>
+      <c r="CC3">
+        <v>0.2234634846876515</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log/c670_wt_log.xlsx
+++ b/log/c670_wt_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Hydrogen_wt%</t>
   </si>
@@ -262,10 +262,7 @@
     <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_Oxygen_wt%</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>98</t>
+    <t>20210123</t>
   </si>
 </sst>
 </file>
@@ -623,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CE3"/>
+  <dimension ref="A1:CE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -885,118 +882,118 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.854681041885593e-07</v>
+        <v>8.780299786302415E-09</v>
       </c>
       <c r="D2">
-        <v>8.610950584822021e-06</v>
+        <v>3.363345357581799E-07</v>
       </c>
       <c r="E2">
-        <v>7.134354516074196e-06</v>
+        <v>9.11064585132804E-07</v>
       </c>
       <c r="F2">
-        <v>8.759497036603493e-24</v>
+        <v>1.50493176967859E-23</v>
       </c>
       <c r="G2">
-        <v>2.8210164626134e-16</v>
+        <v>4.152241602712678E-16</v>
       </c>
       <c r="H2">
-        <v>2.306261748945795e-09</v>
+        <v>3.088403619191467E-09</v>
       </c>
       <c r="I2">
-        <v>0.306911016003281</v>
+        <v>0.3433898619213838</v>
       </c>
       <c r="J2">
-        <v>0.0002550551091472947</v>
+        <v>0.0002917825874016414</v>
       </c>
       <c r="K2">
-        <v>0.004889541280117694</v>
+        <v>0.005017732964288693</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.02252901808136884</v>
+        <v>0.02116676631776113</v>
       </c>
       <c r="N2">
-        <v>99.62023389334537</v>
+        <v>99.59060004412102</v>
       </c>
       <c r="O2">
-        <v>0.02949486562569717</v>
+        <v>0.0230367804570073</v>
       </c>
       <c r="P2">
-        <v>0.0046960578100177</v>
+        <v>0.005135037732351054</v>
       </c>
       <c r="Q2">
-        <v>0.0009025144794926388</v>
+        <v>0.0008643365309939855</v>
       </c>
       <c r="R2">
-        <v>0.006321008988120859</v>
+        <v>0.004929645667734192</v>
       </c>
       <c r="S2">
-        <v>0.001787575874347217</v>
+        <v>0.002627356759359941</v>
       </c>
       <c r="T2">
-        <v>0.00193612464343567</v>
+        <v>0.002929937836887259</v>
       </c>
       <c r="U2">
-        <v>5.354494930940314e-06</v>
+        <v>7.708533084075865E-06</v>
       </c>
       <c r="V2">
-        <v>3.383459957126132e-06</v>
+        <v>1.705214653197602E-06</v>
       </c>
       <c r="W2">
-        <v>2.262429078049366e-12</v>
+        <v>3.851844970755004E-12</v>
       </c>
       <c r="X2">
-        <v>1.645283013106666e-10</v>
+        <v>5.120573157630194E-11</v>
       </c>
       <c r="Y2">
-        <v>4.871598341784278e-15</v>
+        <v>8.784292912804427E-15</v>
       </c>
       <c r="Z2">
-        <v>7.128568298805336e-12</v>
+        <v>1.006975127228728E-11</v>
       </c>
       <c r="AA2">
-        <v>1.45629467715828e-12</v>
+        <v>1.66007032000312E-12</v>
       </c>
       <c r="AB2">
-        <v>3.013701769951314e-14</v>
+        <v>3.830212000678764E-14</v>
       </c>
       <c r="AC2">
-        <v>3.668419060902681e-13</v>
+        <v>4.071764039468973E-13</v>
       </c>
       <c r="AD2">
-        <v>4.220172275114686e-16</v>
+        <v>7.368803287621943E-16</v>
       </c>
       <c r="AE2">
-        <v>5.498713830198003e-16</v>
+        <v>1.556542550966943E-16</v>
       </c>
       <c r="AF2">
-        <v>8.820488206360228e-20</v>
+        <v>1.899062387436094E-19</v>
       </c>
       <c r="AG2">
-        <v>4.62505019148215e-21</v>
+        <v>9.282380726823928E-21</v>
       </c>
       <c r="AH2">
-        <v>6.2791017745987e-20</v>
+        <v>2.096672686865951E-20</v>
       </c>
       <c r="AI2">
-        <v>1.121135481260273e-20</v>
+        <v>3.143850464474698E-21</v>
       </c>
       <c r="AJ2">
-        <v>1.047237935577892e-22</v>
+        <v>2.23184493315844E-22</v>
       </c>
       <c r="AK2">
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.37983063490362e-05</v>
+        <v>3.710542417942961E-08</v>
       </c>
       <c r="AM2">
-        <v>3.628042469709038e-06</v>
+        <v>5.454455484049428E-09</v>
       </c>
       <c r="AN2">
-        <v>1.231200645117669e-06</v>
+        <v>1.461112471594408E-09</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1008,374 +1005,123 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.69295114036475e-12</v>
+        <v>5.027160265391229E-17</v>
       </c>
       <c r="AS2">
-        <v>7.196694949921988e-11</v>
+        <v>5.55689744860628E-15</v>
       </c>
       <c r="AT2">
-        <v>9.366587074948423e-11</v>
+        <v>2.26291615721459E-14</v>
       </c>
       <c r="AU2">
-        <v>1.034890853631098e-28</v>
+        <v>1.669943306772779E-31</v>
       </c>
       <c r="AV2">
-        <v>2.497289829673844e-21</v>
+        <v>9.775898718195889E-24</v>
       </c>
       <c r="AW2">
-        <v>2.027600244914172e-14</v>
+        <v>6.148623144019954E-17</v>
       </c>
       <c r="AX2">
-        <v>1.000575497610779e-09</v>
+        <v>1.038395352066827E-09</v>
       </c>
       <c r="AY2">
-        <v>2.781121428367924e-12</v>
+        <v>2.922134590120706E-12</v>
       </c>
       <c r="AZ2">
-        <v>5.928671330684885e-10</v>
+        <v>5.361494291200322E-10</v>
       </c>
       <c r="BA2">
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>2.698564608051834e-07</v>
+        <v>2.640312210484775E-07</v>
       </c>
       <c r="BC2">
-        <v>0.01990465496367527</v>
+        <v>0.01950046769317005</v>
       </c>
       <c r="BD2">
-        <v>5.294501932293203e-05</v>
+        <v>3.403905882922488E-05</v>
       </c>
       <c r="BE2">
-        <v>0.03414434935562929</v>
+        <v>0.02124590763829053</v>
       </c>
       <c r="BF2">
-        <v>0.03564980644131584</v>
+        <v>0.02422573919507253</v>
       </c>
       <c r="BG2">
-        <v>4.797687399931966</v>
+        <v>3.395197737083587</v>
       </c>
       <c r="BH2">
-        <v>16.58658564389241</v>
+        <v>16.56641391716988</v>
       </c>
       <c r="BI2">
-        <v>35.69578021659051</v>
+        <v>35.94257809754001</v>
       </c>
       <c r="BJ2">
-        <v>14.23142761129443</v>
+        <v>14.55006527806031</v>
       </c>
       <c r="BK2">
-        <v>0.0655610494107913</v>
+        <v>0.04231522239622364</v>
       </c>
       <c r="BL2">
-        <v>0.01176140860310597</v>
+        <v>0.01216555896283312</v>
       </c>
       <c r="BM2">
-        <v>0.08456578317895136</v>
+        <v>0.04255735784744766</v>
       </c>
       <c r="BN2">
-        <v>0.01372164316838488</v>
+        <v>0.01419315174239938</v>
       </c>
       <c r="BO2">
-        <v>1.926072460363019</v>
+        <v>1.990544807761902</v>
       </c>
       <c r="BP2">
-        <v>1.010642665541766</v>
+        <v>1.043658542009721</v>
       </c>
       <c r="BQ2">
-        <v>5.110612631683504</v>
+        <v>5.282803791822033</v>
       </c>
       <c r="BR2">
-        <v>0.5680048420751437</v>
+        <v>0.5866911926993731</v>
       </c>
       <c r="BS2">
-        <v>13.03901747627846</v>
+        <v>13.48623751966366</v>
       </c>
       <c r="BT2">
-        <v>0.006251852722479078</v>
+        <v>0.002993586839210924</v>
       </c>
       <c r="BU2">
-        <v>2.081769150512309</v>
+        <v>2.153303937395964</v>
       </c>
       <c r="BV2">
-        <v>0.06860820815711174</v>
+        <v>0.07096575632478525</v>
       </c>
       <c r="BW2">
-        <v>0.02845343987177144</v>
+        <v>0.014716614731422</v>
       </c>
       <c r="BX2">
-        <v>0.05168668623381245</v>
+        <v>0.04979627133094598</v>
       </c>
       <c r="BY2">
-        <v>1.762250999563946</v>
+        <v>1.822806045366628</v>
       </c>
       <c r="BZ2">
         <v>0</v>
       </c>
       <c r="CA2">
-        <v>2.026864268882796</v>
+        <v>2.096531434537132</v>
       </c>
       <c r="CB2">
-        <v>0.5194573917311854</v>
+        <v>0.5373121357972361</v>
       </c>
       <c r="CC2">
-        <v>0.2234651429121887</v>
+        <v>0.2311456237232024</v>
       </c>
       <c r="CD2">
         <v>0</v>
       </c>
       <c r="CE2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:83">
-      <c r="A3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>8.810025404738826e-07</v>
-      </c>
-      <c r="D3">
-        <v>3.20651733090335e-05</v>
-      </c>
-      <c r="E3">
-        <v>2.060681882747131e-05</v>
-      </c>
-      <c r="F3">
-        <v>8.854212785768177e-24</v>
-      </c>
-      <c r="G3">
-        <v>2.872169437856615e-16</v>
-      </c>
-      <c r="H3">
-        <v>2.34810032187487e-09</v>
-      </c>
-      <c r="I3">
-        <v>0.3073484158406281</v>
-      </c>
-      <c r="J3">
-        <v>0.000255970561251183</v>
-      </c>
-      <c r="K3">
-        <v>0.004889431905261426</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0.02254561053437575</v>
-      </c>
-      <c r="N3">
-        <v>99.61976161194913</v>
-      </c>
-      <c r="O3">
-        <v>0.0294886973657646</v>
-      </c>
-      <c r="P3">
-        <v>0.004691801061970121</v>
-      </c>
-      <c r="Q3">
-        <v>0.0009016052425363053</v>
-      </c>
-      <c r="R3">
-        <v>0.006317235666781553</v>
-      </c>
-      <c r="S3">
-        <v>0.001785747040530392</v>
-      </c>
-      <c r="T3">
-        <v>0.001934053484364809</v>
-      </c>
-      <c r="U3">
-        <v>5.348397701224534e-06</v>
-      </c>
-      <c r="V3">
-        <v>3.380232847271107e-06</v>
-      </c>
-      <c r="W3">
-        <v>2.261155807035869e-12</v>
-      </c>
-      <c r="X3">
-        <v>1.643665352451686e-10</v>
-      </c>
-      <c r="Y3">
-        <v>4.868349340111096e-15</v>
-      </c>
-      <c r="Z3">
-        <v>7.12648172032782e-12</v>
-      </c>
-      <c r="AA3">
-        <v>1.455858581773943e-12</v>
-      </c>
-      <c r="AB3">
-        <v>3.012320222539562e-14</v>
-      </c>
-      <c r="AC3">
-        <v>3.666219889573634e-13</v>
-      </c>
-      <c r="AD3">
-        <v>4.216705251223171e-16</v>
-      </c>
-      <c r="AE3">
-        <v>5.493270924261408e-16</v>
-      </c>
-      <c r="AF3">
-        <v>8.808582308025432e-20</v>
-      </c>
-      <c r="AG3">
-        <v>4.620592110582473e-21</v>
-      </c>
-      <c r="AH3">
-        <v>6.267485962185109e-20</v>
-      </c>
-      <c r="AI3">
-        <v>1.119132898742129e-20</v>
-      </c>
-      <c r="AJ3">
-        <v>1.045882473129972e-22</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>1.297722441663893e-05</v>
-      </c>
-      <c r="AM3">
-        <v>3.400928277579207e-06</v>
-      </c>
-      <c r="AN3">
-        <v>1.157045789852636e-06</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>7.544068337120796e-12</v>
-      </c>
-      <c r="AS3">
-        <v>2.49336626744555e-10</v>
-      </c>
-      <c r="AT3">
-        <v>2.552489669079598e-10</v>
-      </c>
-      <c r="AU3">
-        <v>9.804381928406343e-29</v>
-      </c>
-      <c r="AV3">
-        <v>2.374024040921963e-21</v>
-      </c>
-      <c r="AW3">
-        <v>1.940011954242065e-14</v>
-      </c>
-      <c r="AX3">
-        <v>1.001859937415231e-09</v>
-      </c>
-      <c r="AY3">
-        <v>2.790860724288951e-12</v>
-      </c>
-      <c r="AZ3">
-        <v>5.929950735824826e-10</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>2.700830111345916e-07</v>
-      </c>
-      <c r="BC3">
-        <v>0.0199195987228475</v>
-      </c>
-      <c r="BD3">
-        <v>5.295983005694929e-05</v>
-      </c>
-      <c r="BE3">
-        <v>0.03414932770691748</v>
-      </c>
-      <c r="BF3">
-        <v>0.03565214926481568</v>
-      </c>
-      <c r="BG3">
-        <v>4.797944575707584</v>
-      </c>
-      <c r="BH3">
-        <v>16.58660499882262</v>
-      </c>
-      <c r="BI3">
-        <v>35.69575577952992</v>
-      </c>
-      <c r="BJ3">
-        <v>14.23135489662986</v>
-      </c>
-      <c r="BK3">
-        <v>0.06556422062690234</v>
-      </c>
-      <c r="BL3">
-        <v>0.01176131932191869</v>
-      </c>
-      <c r="BM3">
-        <v>0.08457314318746574</v>
-      </c>
-      <c r="BN3">
-        <v>0.01372153768693965</v>
-      </c>
-      <c r="BO3">
-        <v>1.926057918245893</v>
-      </c>
-      <c r="BP3">
-        <v>1.010635138912966</v>
-      </c>
-      <c r="BQ3">
-        <v>5.110574407875806</v>
-      </c>
-      <c r="BR3">
-        <v>0.568000592485095</v>
-      </c>
-      <c r="BS3">
-        <v>13.03891700027889</v>
-      </c>
-      <c r="BT3">
-        <v>0.006252439423749132</v>
-      </c>
-      <c r="BU3">
-        <v>2.08175332990543</v>
-      </c>
-      <c r="BV3">
-        <v>0.06860767857944705</v>
-      </c>
-      <c r="BW3">
-        <v>0.02845547807932594</v>
-      </c>
-      <c r="BX3">
-        <v>0.0516868612824437</v>
-      </c>
-      <c r="BY3">
-        <v>1.762237397492754</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3">
-        <v>2.026849832576904</v>
-      </c>
-      <c r="CB3">
-        <v>0.519453660943012</v>
-      </c>
-      <c r="CC3">
-        <v>0.2234634846876515</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
         <v>0</v>
       </c>
     </row>

--- a/log/c670_wt_log.xlsx
+++ b/log/c670_wt_log.xlsx
@@ -848,125 +848,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.79941289395911e-10</v>
+        <v>8.411250374824416e-10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.482214705804549e-08</v>
+        <v>4.527853396086863e-08</v>
       </c>
       <c r="E2" t="n">
-        <v>3.356073892072826e-08</v>
+        <v>7.285874819458044e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>1.503318609534882e-23</v>
+        <v>1.510857908510606e-23</v>
       </c>
       <c r="G2" t="n">
-        <v>4.147611728539182e-16</v>
+        <v>4.153595805285083e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.084981672444559e-09</v>
+        <v>3.086748091649903e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3429478961124132</v>
+        <v>0.3692929004708708</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002915829304119956</v>
+        <v>0.0002954943620861417</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005021478105697745</v>
+        <v>0.005014276079098002</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01989707843611866</v>
+        <v>0.01989595693847302</v>
       </c>
       <c r="N2" t="n">
-        <v>99.60061010048361</v>
+        <v>99.57449200792134</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01656808227433326</v>
+        <v>0.01656385322649616</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0038779644922466</v>
+        <v>0.003915020881706073</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006681202567476452</v>
+        <v>0.0006615052573192528</v>
       </c>
       <c r="R2" t="n">
-        <v>0.003810949009941536</v>
+        <v>0.003663183279454354</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002973439949325971</v>
+        <v>0.002920768697589791</v>
       </c>
       <c r="T2" t="n">
-        <v>0.003323898019540382</v>
+        <v>0.003275591990947319</v>
       </c>
       <c r="U2" t="n">
-        <v>8.353556386924209e-06</v>
+        <v>8.359851092386573e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>9.756528980620298e-07</v>
+        <v>9.443867601533344e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>4.545534070936882e-12</v>
+        <v>4.547602998846134e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>1.967043470526623e-11</v>
+        <v>1.830181898234014e-11</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.038683318187798e-14</v>
+        <v>1.043903303088885e-14</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.120783150696389e-11</v>
+        <v>1.125559005260744e-11</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.70680393517694e-12</v>
+        <v>1.718676837236395e-12</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.008390609215456e-14</v>
+        <v>4.064992702953596e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.152162574044477e-13</v>
+        <v>4.147929409899162e-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.479553715442849e-16</v>
+        <v>8.589114370037159e-16</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.742863737461886e-17</v>
+        <v>5.286966308310837e-17</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.259468620292062e-19</v>
+        <v>2.296873135697792e-19</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.102355704643058e-20</v>
+        <v>1.117756785894828e-20</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.262027567249007e-21</v>
+        <v>3.095668286238961e-21</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.130492898803445e-22</v>
+        <v>4.731452080357051e-22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.653257953913854e-22</v>
+        <v>2.693750671942818e-22</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.489584563112123e-08</v>
+        <v>1.26689659687138e-08</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.135029627288884e-09</v>
+        <v>1.557938990266146e-09</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.040429486105972e-10</v>
+        <v>3.284285956940382e-10</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -978,118 +978,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.228098266150556e-18</v>
+        <v>1.100103227258436e-18</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.034353552685511e-16</v>
+        <v>1.387335337860952e-16</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.754083806283687e-16</v>
+        <v>1.986282012568797e-16</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.264101284771568e-31</v>
+        <v>5.565307756481919e-32</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.97705686560934e-24</v>
+        <v>9.985072070248802e-25</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.564200847221194e-17</v>
+        <v>9.669133692984975e-18</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.031501993281105e-09</v>
+        <v>1.11866273983658e-09</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.900048521597732e-12</v>
+        <v>2.960124172061386e-12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5.33022652657541e-10</v>
+        <v>5.360772877655186e-10</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.63173836940502e-07</v>
+        <v>2.657854801722107e-07</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.01955600840150843</v>
+        <v>0.01990732032944903</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.348625879397702e-05</v>
+        <v>3.293278795176256e-05</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.01651583064010788</v>
+        <v>0.01647298272391547</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.01953897362305966</v>
+        <v>0.01954603259840981</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.745320015526814</v>
+        <v>2.745467814459453</v>
       </c>
       <c r="BH2" t="n">
-        <v>16.62495634769514</v>
+        <v>16.62491709878523</v>
       </c>
       <c r="BI2" t="n">
-        <v>36.12516249244754</v>
+        <v>36.1250022581795</v>
       </c>
       <c r="BJ2" t="n">
-        <v>14.63689556353058</v>
+        <v>14.63680922797722</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0313864623572068</v>
+        <v>0.03138631167399627</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0123271056581152</v>
+        <v>0.01232703299549507</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0176136484248392</v>
+        <v>0.01761354375923693</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.01438162288672152</v>
+        <v>0.01438153742321458</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.015481984057324</v>
+        <v>2.015469985737537</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.056021996809719</v>
+        <v>1.056015778528811</v>
       </c>
       <c r="BQ2" t="n">
-        <v>5.349964025775789</v>
+        <v>5.349932255897751</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.5937555843225862</v>
+        <v>0.5937520558127614</v>
       </c>
       <c r="BS2" t="n">
-        <v>13.66459532175635</v>
+        <v>13.6645142006224</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.001033688119888848</v>
+        <v>0.001033681983592556</v>
       </c>
       <c r="BU2" t="n">
-        <v>2.181897703236113</v>
+        <v>2.181884750703781</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.07190811201540134</v>
+        <v>0.07190768514262993</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.003888467722903512</v>
+        <v>0.003888433489884459</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.04772072828669181</v>
+        <v>0.04772044302472385</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.847011123120703</v>
+        <v>1.847000158650691</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.124371317181788</v>
+        <v>2.124358706248295</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.5444471143421427</v>
+        <v>0.5444438823336096</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.2342150110609126</v>
+        <v>0.2342136206872819</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>

--- a/log/c670_wt_log.xlsx
+++ b/log/c670_wt_log.xlsx
@@ -848,125 +848,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.411250374824416e-10</v>
+        <v>4.882525671848932e-10</v>
       </c>
       <c r="D2" t="n">
-        <v>4.527853396086863e-08</v>
+        <v>1.948945300608404e-08</v>
       </c>
       <c r="E2" t="n">
-        <v>7.285874819458044e-08</v>
+        <v>4.266064354056439e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>1.510857908510606e-23</v>
+        <v>1.503641456335117e-23</v>
       </c>
       <c r="G2" t="n">
-        <v>4.153595805285083e-16</v>
+        <v>4.14785212796965e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.086748091649903e-09</v>
+        <v>3.085076953267862e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3692929004708708</v>
+        <v>0.3432081812120504</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002954943620861417</v>
+        <v>0.0002918850928256864</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005014276079098002</v>
+        <v>0.005021528492396222</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01989595693847302</v>
+        <v>0.01989653038264127</v>
       </c>
       <c r="N2" t="n">
-        <v>99.57449200792134</v>
+        <v>99.60035181888371</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01656385322649616</v>
+        <v>0.0165680418617828</v>
       </c>
       <c r="P2" t="n">
-        <v>0.003915020881706073</v>
+        <v>0.003877809967144886</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006615052573192528</v>
+        <v>0.0006680254130363223</v>
       </c>
       <c r="R2" t="n">
-        <v>0.003663183279454354</v>
+        <v>0.003810555369340733</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002920768697589791</v>
+        <v>0.002972939742998978</v>
       </c>
       <c r="T2" t="n">
-        <v>0.003275591990947319</v>
+        <v>0.003323261841090969</v>
       </c>
       <c r="U2" t="n">
-        <v>8.359851092386573e-06</v>
+        <v>8.351425005809637e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>9.443867601533344e-07</v>
+        <v>9.753927993712402e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>4.547602998846134e-12</v>
+        <v>4.545095045639709e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>1.830181898234014e-11</v>
+        <v>1.966365578850191e-11</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.043903303088885e-14</v>
+        <v>1.038618059218076e-14</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.125559005260744e-11</v>
+        <v>1.120616220610563e-11</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.718676837236395e-12</v>
+        <v>1.706382763108598e-12</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.064992702953596e-14</v>
+        <v>4.007783232026285e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.147929409899162e-13</v>
+        <v>4.151160139975632e-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.589114370037159e-16</v>
+        <v>8.479442672775411e-16</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.286966308310837e-17</v>
+        <v>5.740980206667846e-17</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.296873135697792e-19</v>
+        <v>2.259611602459314e-19</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.117756785894828e-20</v>
+        <v>1.102380258615769e-20</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.095668286238961e-21</v>
+        <v>3.259067833665462e-21</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.731452080357051e-22</v>
+        <v>5.123090910751867e-22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.693750671942818e-22</v>
+        <v>2.653374822683749e-22</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.26689659687138e-08</v>
+        <v>2.517892660083575e-08</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.557938990266146e-09</v>
+        <v>3.169419273690885e-09</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.284285956940382e-10</v>
+        <v>8.138013816879621e-10</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -978,118 +978,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.100103227258436e-18</v>
+        <v>1.594581625582532e-18</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.387335337860952e-16</v>
+        <v>1.37547663983301e-16</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.986282012568797e-16</v>
+        <v>2.263516647216082e-16</v>
       </c>
       <c r="AU2" t="n">
-        <v>5.565307756481919e-32</v>
+        <v>1.27872592821012e-31</v>
       </c>
       <c r="AV2" t="n">
-        <v>9.985072070248802e-25</v>
+        <v>2.003708955537397e-24</v>
       </c>
       <c r="AW2" t="n">
-        <v>9.669133692984975e-18</v>
+        <v>2.596106687162256e-17</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.11866273983658e-09</v>
+        <v>1.031928749934173e-09</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.960124172061386e-12</v>
+        <v>2.902031198891207e-12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5.360772877655186e-10</v>
+        <v>5.328692796673984e-10</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.657854801722107e-07</v>
+        <v>2.631907674837067e-07</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.01990732032944903</v>
+        <v>0.01955592143757101</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.293278795176256e-05</v>
+        <v>3.348790211376283e-05</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.01647298272391547</v>
+        <v>0.01651599305331482</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.01954603259840981</v>
+        <v>0.01953907607943031</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.745467814459453</v>
+        <v>2.745320513151094</v>
       </c>
       <c r="BH2" t="n">
-        <v>16.62491709878523</v>
+        <v>16.62495759095641</v>
       </c>
       <c r="BI2" t="n">
-        <v>36.1250022581795</v>
+        <v>36.12516140142506</v>
       </c>
       <c r="BJ2" t="n">
-        <v>14.63680922797722</v>
+        <v>14.63689524746325</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.03138631167399627</v>
+        <v>0.03138646094919402</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.01232703299549507</v>
+        <v>0.01232710543486643</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.01761354375923693</v>
+        <v>0.01761364812368117</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.01438153742321458</v>
+        <v>0.01438162264086357</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.015469985737537</v>
+        <v>2.015481949372147</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.056015778528811</v>
+        <v>1.056021978688168</v>
       </c>
       <c r="BQ2" t="n">
-        <v>5.349932255897751</v>
+        <v>5.349963934546627</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.5937520558127614</v>
+        <v>0.5937555741714557</v>
       </c>
       <c r="BS2" t="n">
-        <v>13.6645142006224</v>
+        <v>13.66459508903578</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.001033681983592556</v>
+        <v>0.001033688102286519</v>
       </c>
       <c r="BU2" t="n">
-        <v>2.181884750703781</v>
+        <v>2.181897666080586</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.07190768514262993</v>
+        <v>0.07190811079087266</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.003888433489884459</v>
+        <v>0.003888464267994268</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.04772044302472385</v>
+        <v>0.04772072675060171</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.847000158650691</v>
+        <v>1.847011091668082</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.124358706248295</v>
+        <v>2.124371281006574</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.5444438823336096</v>
+        <v>0.5444471050709344</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.2342136206872819</v>
+        <v>0.2342150070725434</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>

--- a/log/c670_wt_log.xlsx
+++ b/log/c670_wt_log.xlsx
@@ -848,125 +848,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>8888</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.882525671848932e-10</v>
+        <v>4.759640760405774e-10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.948945300608404e-08</v>
+        <v>1.396489507870928e-08</v>
       </c>
       <c r="E2" t="n">
-        <v>4.266064354056439e-08</v>
+        <v>5.501588237103728e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>1.503641456335117e-23</v>
+        <v>1.513877915698143e-23</v>
       </c>
       <c r="G2" t="n">
-        <v>4.14785212796965e-16</v>
+        <v>4.597048583743213e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.085076953267862e-09</v>
+        <v>3.437138117700204e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3432081812120504</v>
+        <v>0.3648847741434516</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002918850928256864</v>
+        <v>0.0003062872858196159</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005021528492396222</v>
+        <v>0.005747479709185717</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01989653038264127</v>
+        <v>0.02729723572823562</v>
       </c>
       <c r="N2" t="n">
-        <v>99.60035181888371</v>
+        <v>99.54382091477707</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0165680418617828</v>
+        <v>0.0396556970293391</v>
       </c>
       <c r="P2" t="n">
-        <v>0.003877809967144886</v>
+        <v>0.006964694077801568</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006680254130363223</v>
+        <v>0.001084219140179082</v>
       </c>
       <c r="R2" t="n">
-        <v>0.003810555369340733</v>
+        <v>0.006149049880407128</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002972939742998978</v>
+        <v>0.001907025814799875</v>
       </c>
       <c r="T2" t="n">
-        <v>0.003323261841090969</v>
+        <v>0.002171975802134284</v>
       </c>
       <c r="U2" t="n">
-        <v>8.351425005809637e-06</v>
+        <v>6.085724940650772e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>9.753927993712402e-07</v>
+        <v>2.609592134346215e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>4.545095045639709e-12</v>
+        <v>2.660964730937905e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>1.966365578850191e-11</v>
+        <v>8.795987288097593e-11</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.038618059218076e-14</v>
+        <v>6.113975485272578e-15</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.120616220610563e-11</v>
+        <v>6.904999536685634e-12</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.706382763108598e-12</v>
+        <v>1.115879697404048e-12</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.007783232026285e-14</v>
+        <v>2.685187715143488e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.151160139975632e-13</v>
+        <v>2.768252937599228e-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.479442672775411e-16</v>
+        <v>5.253990864807453e-16</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.740980206667846e-17</v>
+        <v>2.74239590791825e-16</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.259611602459314e-19</v>
+        <v>1.379242340406611e-19</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.102380258615769e-20</v>
+        <v>6.628468891322734e-21</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.259067833665462e-21</v>
+        <v>1.841959877017802e-21</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.123090910751867e-22</v>
+        <v>4.210463812585311e-22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.653374822683749e-22</v>
+        <v>1.596531325772849e-22</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.517892660083575e-08</v>
+        <v>1.450667341385518e-06</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.169419273690885e-09</v>
+        <v>3.184058235753548e-07</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.138013816879621e-10</v>
+        <v>1.092285111143478e-07</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -978,118 +978,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.594581625582532e-18</v>
+        <v>1.909959070806349e-16</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.37547663983301e-16</v>
+        <v>9.849030653547335e-15</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.263516647216082e-16</v>
+        <v>7.457953511272931e-14</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.27872592821012e-31</v>
+        <v>1.173078181505854e-29</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.003708955537397e-24</v>
+        <v>5.045123537589474e-22</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.596106687162256e-17</v>
+        <v>3.53457414728489e-15</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.031928749934173e-09</v>
+        <v>1.025627852589391e-09</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.902031198891207e-12</v>
+        <v>2.854488375858471e-12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5.328692796673984e-10</v>
+        <v>5.79547304473666e-10</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.631907674837067e-07</v>
+        <v>2.903483918007938e-07</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.01955592143757101</v>
+        <v>0.01980995835584248</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.348790211376283e-05</v>
+        <v>4.016616342937259e-05</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.01651599305331482</v>
+        <v>0.03453095203975694</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.01953907607943031</v>
+        <v>0.03662391866053492</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.745320513151094</v>
+        <v>4.852772360005924</v>
       </c>
       <c r="BH2" t="n">
-        <v>16.62495759095641</v>
+        <v>16.30821056989697</v>
       </c>
       <c r="BI2" t="n">
-        <v>36.12516140142506</v>
+        <v>35.55768039567151</v>
       </c>
       <c r="BJ2" t="n">
-        <v>14.63689524746325</v>
+        <v>14.3917693642309</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.03138646094919402</v>
+        <v>0.06844707487419102</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.01232710543486643</v>
+        <v>0.01185555926180568</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.01761364812368117</v>
+        <v>0.09478012934805739</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.01438162264086357</v>
+        <v>0.01383148747767959</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.015481949372147</v>
+        <v>1.939417346337497</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.056021978688168</v>
+        <v>1.016659371511756</v>
       </c>
       <c r="BQ2" t="n">
-        <v>5.349963934546627</v>
+        <v>5.147331755198819</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.5937555741714557</v>
+        <v>0.571559351860875</v>
       </c>
       <c r="BS2" t="n">
-        <v>13.66459508903578</v>
+        <v>13.14240392543785</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.001033688102286519</v>
+        <v>0.007137810744496999</v>
       </c>
       <c r="BU2" t="n">
-        <v>2.181897666080586</v>
+        <v>2.098433986770545</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.07190811079087266</v>
+        <v>0.06915743074387554</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.003888464267994268</v>
+        <v>0.003384689206267351</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.04772072675060171</v>
+        <v>0.04582197798331306</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.847011091668082</v>
+        <v>1.776357944923062</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.124371281006574</v>
+        <v>2.043106444282258</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.5444471050709344</v>
+        <v>0.5236202136973789</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.2342150070725434</v>
+        <v>0.2252555233589087</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>

--- a/log/c670_wt_log.xlsx
+++ b/log/c670_wt_log.xlsx
@@ -848,125 +848,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>8888</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.759640760405774e-10</v>
+        <v>9.479664263537736e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>1.396489507870928e-08</v>
+        <v>1.037970077010575e-09</v>
       </c>
       <c r="E2" t="n">
-        <v>5.501588237103728e-08</v>
+        <v>9.406406983934812e-10</v>
       </c>
       <c r="F2" t="n">
-        <v>1.513877915698143e-23</v>
+        <v>6.472775631149709e-24</v>
       </c>
       <c r="G2" t="n">
-        <v>4.597048583743213e-16</v>
+        <v>2.323626577570174e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.437138117700204e-09</v>
+        <v>1.787220063095422e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3648847741434516</v>
+        <v>0.2290091811224216</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003062872858196159</v>
+        <v>0.0001540447911179591</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005747479709185717</v>
+        <v>0.003229154336097671</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02729723572823562</v>
+        <v>0.01368694373635187</v>
       </c>
       <c r="N2" t="n">
-        <v>99.54382091477707</v>
+        <v>99.72556872314996</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0396556970293391</v>
+        <v>0.01445366521802209</v>
       </c>
       <c r="P2" t="n">
-        <v>0.006964694077801568</v>
+        <v>0.002994899395761831</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001084219140179082</v>
+        <v>0.0006576207624278541</v>
       </c>
       <c r="R2" t="n">
-        <v>0.006149049880407128</v>
+        <v>0.006442381761159046</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001907025814799875</v>
+        <v>0.001873067993326389</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002171975802134284</v>
+        <v>0.001922988209121295</v>
       </c>
       <c r="U2" t="n">
-        <v>6.085724940650772e-06</v>
+        <v>4.324892813683023e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>2.609592134346215e-06</v>
+        <v>3.000675127016757e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>2.660964730937905e-12</v>
+        <v>6.298865566953137e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>8.795987288097593e-11</v>
+        <v>1.595170574355907e-10</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.113975485272578e-15</v>
+        <v>1.428116092582996e-14</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.904999536685634e-12</v>
+        <v>8.055349048120682e-12</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.115879697404048e-12</v>
+        <v>1.233853132324427e-12</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.685187715143488e-14</v>
+        <v>2.620843890570375e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.768252937599228e-13</v>
+        <v>3.072144393708366e-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.253990864807453e-16</v>
+        <v>5.281304063630477e-16</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.74239590791825e-16</v>
+        <v>5.748586005610098e-16</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.379242340406611e-19</v>
+        <v>1.265772577822744e-19</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.628468891322734e-21</v>
+        <v>9.277893137974904e-21</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.841959877017802e-21</v>
+        <v>2.98591211729902e-20</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.210463812585311e-22</v>
+        <v>5.006656008449034e-21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.596531325772849e-22</v>
+        <v>1.257168730392006e-22</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.450667341385518e-06</v>
+        <v>4.874717924326736e-12</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.184058235753548e-07</v>
+        <v>3.268934521940198e-13</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.092285111143478e-07</v>
+        <v>3.539276554672173e-13</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -978,118 +978,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.909959070806349e-16</v>
+        <v>1.167713003615969e-23</v>
       </c>
       <c r="AS2" t="n">
-        <v>9.849030653547335e-15</v>
+        <v>1.057285159491542e-20</v>
       </c>
       <c r="AT2" t="n">
-        <v>7.457953511272931e-14</v>
+        <v>9.967880776163375e-21</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.173078181505854e-29</v>
+        <v>4.00566489214823e-35</v>
       </c>
       <c r="AV2" t="n">
-        <v>5.045123537589474e-22</v>
+        <v>2.400866914342651e-27</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.53457414728489e-15</v>
+        <v>2.878778554403598e-20</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.025627852589391e-09</v>
+        <v>6.471482387764151e-10</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.854488375858471e-12</v>
+        <v>1.41262627224536e-12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5.79547304473666e-10</v>
+        <v>3.156050150313842e-10</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.903483918007938e-07</v>
+        <v>1.744459819724044e-07</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.01980995835584248</v>
+        <v>0.01957859911302147</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.016616342937259e-05</v>
+        <v>2.817244377395923e-05</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.03453095203975694</v>
+        <v>0.0252429733826592</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.03662391866053492</v>
+        <v>0.02811373072514987</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.852772360005924</v>
+        <v>4.109028501010211</v>
       </c>
       <c r="BH2" t="n">
-        <v>16.30821056989697</v>
+        <v>14.18453007535725</v>
       </c>
       <c r="BI2" t="n">
-        <v>35.55768039567151</v>
+        <v>29.48379513071536</v>
       </c>
       <c r="BJ2" t="n">
-        <v>14.3917693642309</v>
+        <v>12.50221794603454</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.06844707487419102</v>
+        <v>0.04929196010220674</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.01185555926180568</v>
+        <v>0.03125941164857046</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.09478012934805739</v>
+        <v>0.04861286960867855</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.01383148747767959</v>
+        <v>0.03847312001900559</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.939417346337497</v>
+        <v>2.596935816160503</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.016659371511756</v>
+        <v>1.360986621099445</v>
       </c>
       <c r="BQ2" t="n">
-        <v>5.147331755198819</v>
+        <v>7.326724868559295</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.571559351860875</v>
+        <v>0.7646532425509487</v>
       </c>
       <c r="BS2" t="n">
-        <v>13.14240392543785</v>
+        <v>18.71236225569546</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.007137810744496999</v>
+        <v>0.00347738630314309</v>
       </c>
       <c r="BU2" t="n">
-        <v>2.098433986770545</v>
+        <v>2.986475369029757</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.06915743074387554</v>
+        <v>0.1346559235627486</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.003384689206267351</v>
+        <v>0.008574124910279854</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.04582197798331306</v>
+        <v>0.05447096891547941</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.776357944923062</v>
+        <v>2.007815939915892</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.043106444282258</v>
+        <v>2.313196174188901</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.5236202136973789</v>
+        <v>0.8464085952864377</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.2252555233589087</v>
+        <v>0.3630900482511054</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>

--- a/log/c670_wt_log.xlsx
+++ b/log/c670_wt_log.xlsx
@@ -848,125 +848,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.479664263537736e-12</v>
+        <v>1.81881698992221e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.037970077010575e-09</v>
+        <v>8.136234549631854e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>9.406406983934812e-10</v>
+        <v>2.674272928022674e-09</v>
       </c>
       <c r="F2" t="n">
-        <v>6.472775631149709e-24</v>
+        <v>5.014575963164771e-24</v>
       </c>
       <c r="G2" t="n">
-        <v>2.323626577570174e-16</v>
+        <v>2.171131015304752e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.787220063095422e-09</v>
+        <v>1.73723001115179e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2290091811224216</v>
+        <v>0.2278034315874238</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001540447911179591</v>
+        <v>0.0001564647731187018</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003229154336097671</v>
+        <v>0.003317208358111486</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01368694373635187</v>
+        <v>0.01419481851188359</v>
       </c>
       <c r="N2" t="n">
-        <v>99.72556872314996</v>
+        <v>99.72579876548777</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01445366521802209</v>
+        <v>0.01496780299060151</v>
       </c>
       <c r="P2" t="n">
-        <v>0.002994899395761831</v>
+        <v>0.002974762093147577</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006576207624278541</v>
+        <v>0.0006594408094213483</v>
       </c>
       <c r="R2" t="n">
-        <v>0.006442381761159046</v>
+        <v>0.006533537288472143</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001873067993326389</v>
+        <v>0.001777042490911657</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001922988209121295</v>
+        <v>0.001809613890899194</v>
       </c>
       <c r="U2" t="n">
-        <v>4.324892813683023e-06</v>
+        <v>3.972885432907312e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>3.000675127016757e-06</v>
+        <v>3.133084832051375e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>6.298865566953137e-12</v>
+        <v>5.540589840819289e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>1.595170574355907e-10</v>
+        <v>1.722863512845998e-10</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.428116092582996e-14</v>
+        <v>1.253841340126215e-14</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.055349048120682e-12</v>
+        <v>7.1016937874347e-12</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.233853132324427e-12</v>
+        <v>1.089940554304569e-12</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.620843890570375e-14</v>
+        <v>2.267856695659132e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.072144393708366e-13</v>
+        <v>2.679445373414295e-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.281304063630477e-16</v>
+        <v>4.610740190417696e-16</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.748586005610098e-16</v>
+        <v>6.200475342784737e-16</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.265772577822744e-19</v>
+        <v>1.108161633316674e-19</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.277893137974904e-21</v>
+        <v>8.138339971580556e-21</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.98591211729902e-20</v>
+        <v>3.197162454810952e-20</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.006656008449034e-21</v>
+        <v>5.704829009052291e-21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.257168730392006e-22</v>
+        <v>1.101373399701621e-22</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>4.874717924326736e-12</v>
+        <v>2.639354296873733e-10</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.268934521940198e-13</v>
+        <v>2.715985581298147e-11</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.539276554672173e-13</v>
+        <v>2.724998960227571e-11</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -978,118 +978,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.167713003615969e-23</v>
+        <v>1.067353023652214e-21</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.057285159491542e-20</v>
+        <v>4.293782256522262e-19</v>
       </c>
       <c r="AT2" t="n">
-        <v>9.967880776163375e-21</v>
+        <v>1.77590085978608e-18</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.00566489214823e-35</v>
+        <v>2.955502655611899e-33</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.400866914342651e-27</v>
+        <v>1.681831866855212e-25</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.878778554403598e-20</v>
+        <v>1.321021068451449e-18</v>
       </c>
       <c r="AX2" t="n">
-        <v>6.471482387764151e-10</v>
+        <v>6.338918819125458e-10</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.41262627224536e-12</v>
+        <v>1.416535170428954e-12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3.156050150313842e-10</v>
+        <v>3.246937776712726e-10</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.744459819724044e-07</v>
+        <v>1.877125235539119e-07</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.01957859911302147</v>
+        <v>0.01977873015073647</v>
       </c>
       <c r="BD2" t="n">
-        <v>2.817244377395923e-05</v>
+        <v>3.165302260050846e-05</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0252429733826592</v>
+        <v>0.02701484626612957</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.02811373072514987</v>
+        <v>0.02983681867384046</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.109028501010211</v>
+        <v>4.239732134250684</v>
       </c>
       <c r="BH2" t="n">
-        <v>14.18453007535725</v>
+        <v>14.21367942716803</v>
       </c>
       <c r="BI2" t="n">
-        <v>29.48379513071536</v>
+        <v>29.50498090409875</v>
       </c>
       <c r="BJ2" t="n">
-        <v>12.50221794603454</v>
+        <v>12.46502550869129</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.04929196010220674</v>
+        <v>0.05223372742984757</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.03125941164857046</v>
+        <v>0.0311376114618745</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.04861286960867855</v>
+        <v>0.05151401661710582</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.03847312001900559</v>
+        <v>0.03832321422478088</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.596935816160503</v>
+        <v>2.586817018671305</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.360986621099445</v>
+        <v>1.355683525605778</v>
       </c>
       <c r="BQ2" t="n">
-        <v>7.326724868559295</v>
+        <v>7.298176174369305</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.7646532425509487</v>
+        <v>0.7616738136899464</v>
       </c>
       <c r="BS2" t="n">
-        <v>18.71236225569546</v>
+        <v>18.63945264020736</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.00347738630314309</v>
+        <v>0.003684909466136214</v>
       </c>
       <c r="BU2" t="n">
-        <v>2.986475369029757</v>
+        <v>2.974838939747374</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.1346559235627486</v>
+        <v>0.1341312424756862</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.008574124910279854</v>
+        <v>0.008932939091495404</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.05447096891547941</v>
+        <v>0.05435856796006761</v>
       </c>
       <c r="BY2" t="n">
-        <v>2.007815939915892</v>
+        <v>1.999992388567469</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.313196174188901</v>
+        <v>2.30418310090401</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.8464085952864377</v>
+        <v>0.8431106825335826</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.3630900482511054</v>
+        <v>0.3616752759823096</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>

--- a/log/c670_wt_log.xlsx
+++ b/log/c670_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE2"/>
+  <dimension ref="A1:CE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,127 +846,125 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>123</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.81881698992221e-11</v>
+        <v>8.069028213396367e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>8.136234549631854e-10</v>
+        <v>7.026913077980672e-09</v>
       </c>
       <c r="E2" t="n">
-        <v>2.674272928022674e-09</v>
+        <v>8.552174602557491e-09</v>
       </c>
       <c r="F2" t="n">
-        <v>5.014575963164771e-24</v>
+        <v>5.03632747910187e-24</v>
       </c>
       <c r="G2" t="n">
-        <v>2.171131015304752e-16</v>
+        <v>2.174809811059257e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.73723001115179e-09</v>
+        <v>1.739145304088078e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2278034315874238</v>
+        <v>0.2277651757909334</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001564647731187018</v>
+        <v>0.0001564775179320432</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003317208358111486</v>
+        <v>0.003316593721665621</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01419481851188359</v>
+        <v>0.01417744445284165</v>
       </c>
       <c r="N2" t="n">
-        <v>99.72579876548777</v>
+        <v>99.7258543906883</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01496780299060151</v>
+        <v>0.01496781484536723</v>
       </c>
       <c r="P2" t="n">
-        <v>0.002974762093147577</v>
+        <v>0.002978810710000065</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006594408094213483</v>
+        <v>0.0006597452807988768</v>
       </c>
       <c r="R2" t="n">
-        <v>0.006533537288472143</v>
+        <v>0.00652977629245374</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001777042490911657</v>
+        <v>0.001776969646545147</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001809613890899194</v>
+        <v>0.001809676245305274</v>
       </c>
       <c r="U2" t="n">
-        <v>3.972885432907312e-06</v>
+        <v>3.975993289648537e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>3.133084832051375e-06</v>
+        <v>3.130915925745586e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>5.540589840819289e-12</v>
+        <v>5.55475648759424e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>1.722863512845998e-10</v>
+        <v>1.718706908866907e-10</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.253841340126215e-14</v>
+        <v>1.257159739380795e-14</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.1016937874347e-12</v>
+        <v>7.126300799266028e-12</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.089940554304569e-12</v>
+        <v>1.095173194245849e-12</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.267856695659132e-14</v>
+        <v>2.281881856541982e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.679445373414295e-13</v>
+        <v>2.693208534459479e-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.610740190417696e-16</v>
+        <v>4.627745313042006e-16</v>
       </c>
       <c r="AE2" t="n">
-        <v>6.200475342784737e-16</v>
+        <v>6.184217728258556e-16</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.108161633316674e-19</v>
+        <v>1.111451640759645e-19</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.138339971580556e-21</v>
+        <v>8.161527495502902e-21</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.197162454810952e-20</v>
+        <v>3.19020452712735e-20</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.704829009052291e-21</v>
+        <v>5.720482360382162e-21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.101373399701621e-22</v>
+        <v>1.104424610189279e-22</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.639354296873733e-10</v>
+        <v>2.607411896718262e-10</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.715985581298147e-11</v>
+        <v>2.659378589472964e-11</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.724998960227571e-11</v>
+        <v>2.646162819714844e-11</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -978,123 +976,627 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.067353023652214e-21</v>
+        <v>4.689066962736571e-21</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.293782256522262e-19</v>
+        <v>3.667749716987127e-18</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.77590085978608e-18</v>
+        <v>5.577812218858383e-18</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.955502655611899e-33</v>
+        <v>2.89371440244264e-33</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.681831866855212e-25</v>
+        <v>1.650920900831448e-25</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.321021068451449e-18</v>
+        <v>1.302187110380669e-18</v>
       </c>
       <c r="AX2" t="n">
-        <v>6.338918819125458e-10</v>
+        <v>6.348695648343977e-10</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.416535170428954e-12</v>
+        <v>1.419019120805965e-12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3.246937776712726e-10</v>
+        <v>3.250407836921447e-10</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.877125235539119e-07</v>
+        <v>1.874803040168192e-07</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.01977873015073647</v>
+        <v>0.01979386771503408</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.165302260050846e-05</v>
+        <v>3.164399494720874e-05</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.02701484626612957</v>
+        <v>0.02700637410339728</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.02983681867384046</v>
+        <v>0.02983617676637429</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.239732134250684</v>
+        <v>4.239739408424207</v>
       </c>
       <c r="BH2" t="n">
-        <v>14.21367942716803</v>
+        <v>14.21367747614435</v>
       </c>
       <c r="BI2" t="n">
-        <v>29.50498090409875</v>
+        <v>29.50497682976653</v>
       </c>
       <c r="BJ2" t="n">
-        <v>12.46502550869129</v>
+        <v>12.46502377219364</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.05223372742984757</v>
+        <v>0.0522337264299984</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0311376114618745</v>
+        <v>0.03113760711214384</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.05151401661710582</v>
+        <v>0.05151400941685425</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.03832321422478088</v>
+        <v>0.03832320886844361</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.586817018671305</v>
+        <v>2.586816657157602</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.355683525605778</v>
+        <v>1.355683336134847</v>
       </c>
       <c r="BQ2" t="n">
-        <v>7.298176174369305</v>
+        <v>7.29817515427971</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.7616738136899464</v>
+        <v>0.761673707233119</v>
       </c>
       <c r="BS2" t="n">
-        <v>18.63945264020736</v>
+        <v>18.63945003487361</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.003684909466136214</v>
+        <v>0.003684908951075654</v>
       </c>
       <c r="BU2" t="n">
-        <v>2.974838939747374</v>
+        <v>2.974838523937565</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.1341312424756862</v>
+        <v>0.1341312237274176</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.008932939091495404</v>
+        <v>0.008932929269933703</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.05435856796006761</v>
+        <v>0.05435855708875618</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.999992388567469</v>
+        <v>1.999992109017303</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.30418310090401</v>
+        <v>2.304182778835354</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.8431106825335826</v>
+        <v>0.8431105646872514</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.3616752759823096</v>
+        <v>0.3616752254289183</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.069028213396367e-11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.026913077980672e-09</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.552174602557491e-09</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.03632747910187e-24</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.174809811059257e-16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.739145304088078e-09</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2277651757909334</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0001564775179320432</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.003316593721665621</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01417744445284165</v>
+      </c>
+      <c r="N3" t="n">
+        <v>99.7258543906883</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.01496781484536723</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.002978810710000065</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0006597452807988768</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.00652977629245374</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.001776969646545147</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.001809676245305274</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.975993289648537e-06</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.130915925745586e-06</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.55475648759424e-12</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.718706908866907e-10</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.257159739380795e-14</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>7.126300799266028e-12</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.095173194245849e-12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2.281881856541982e-14</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2.693208534459479e-13</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>4.627745313042006e-16</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6.184217728258556e-16</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.111451640759645e-19</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8.161527495502902e-21</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3.19020452712735e-20</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>5.720482360382162e-21</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.104424610189279e-22</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2.607411896718262e-10</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>2.659378589472964e-11</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2.646162819714844e-11</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>4.689066962736571e-21</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>3.667749716987127e-18</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>5.577812218858383e-18</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>2.89371440244264e-33</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1.650920900831448e-25</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1.302187110380669e-18</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>6.348695648343977e-10</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1.419019120805965e-12</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>3.250407836921447e-10</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1.874803040168192e-07</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.01979386771503408</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>3.164399494720874e-05</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.02700637410339728</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.02983617676637429</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>4.239739408424207</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>14.21367747614435</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>29.50497682976653</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>12.46502377219364</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.0522337264299984</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.03113760711214384</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.05151400941685425</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.03832320886844361</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>2.586816657157602</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.355683336134847</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>7.29817515427971</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.761673707233119</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>18.63945003487361</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.003684908951075654</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>2.974838523937565</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.1341312237274176</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.008932929269933703</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.05435855708875618</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>1.999992109017303</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>2.304182778835354</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.8431105646872514</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.3616752254289183</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.069028213396367e-11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.026913077980672e-09</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.552174602557491e-09</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.03632747910187e-24</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.174809811059257e-16</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.739145304088078e-09</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2277651757909334</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0001564775179320432</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.003316593721665621</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01417744445284165</v>
+      </c>
+      <c r="N4" t="n">
+        <v>99.7258543906883</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01496781484536723</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.002978810710000065</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0006597452807988768</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.00652977629245374</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.001776969646545147</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.001809676245305274</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3.975993289648537e-06</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.130915925745586e-06</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.55475648759424e-12</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.718706908866907e-10</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.257159739380795e-14</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7.126300799266028e-12</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1.095173194245849e-12</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2.281881856541982e-14</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2.693208534459479e-13</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>4.627745313042006e-16</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>6.184217728258556e-16</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.111451640759645e-19</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>8.161527495502902e-21</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>3.19020452712735e-20</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>5.720482360382162e-21</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.104424610189279e-22</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2.607411896718262e-10</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2.659378589472964e-11</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2.646162819714844e-11</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>4.689066962736571e-21</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3.667749716987127e-18</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>5.577812218858383e-18</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>2.89371440244264e-33</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1.650920900831448e-25</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1.302187110380669e-18</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>6.348695648343977e-10</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1.419019120805965e-12</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>3.250407836921447e-10</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1.874803040168192e-07</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.01979386771503408</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>3.164399494720874e-05</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.02700637410339728</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.02983617676637429</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>4.239739408424207</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>14.21367747614435</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>29.50497682976653</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>12.46502377219364</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.0522337264299984</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.03113760711214384</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.05151400941685425</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.03832320886844361</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>2.586816657157602</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.355683336134847</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>7.29817515427971</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0.761673707233119</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>18.63945003487361</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.003684908951075654</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>2.974838523937565</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.1341312237274176</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.008932929269933703</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.05435855708875618</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>1.999992109017303</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>2.304182778835354</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.8431105646872514</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.3616752254289183</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/log/c670_wt_log.xlsx
+++ b/log/c670_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE4"/>
+  <dimension ref="A1:CE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1348,10 +1348,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>456</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -1597,6 +1595,512 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.069028213396367e-11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.026913077980672e-09</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.552174602557491e-09</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.03632747910187e-24</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.174809811059257e-16</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.739145304088078e-09</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2277651757909334</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0001564775179320432</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.003316593721665621</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01417744445284165</v>
+      </c>
+      <c r="N5" t="n">
+        <v>99.7258543906883</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01496781484536723</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.002978810710000065</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0006597452807988768</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.00652977629245374</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.001776969646545147</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.001809676245305274</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.975993289648537e-06</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.130915925745586e-06</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.55475648759424e-12</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.718706908866907e-10</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.257159739380795e-14</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7.126300799266028e-12</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1.095173194245849e-12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2.281881856541982e-14</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2.693208534459479e-13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>4.627745313042006e-16</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6.184217728258556e-16</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.111451640759645e-19</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8.161527495502902e-21</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>3.19020452712735e-20</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>5.720482360382162e-21</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.104424610189279e-22</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.607411896718262e-10</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2.659378589472964e-11</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.646162819714844e-11</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>4.689066962736571e-21</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>3.667749716987127e-18</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>5.577812218858383e-18</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>2.89371440244264e-33</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.650920900831448e-25</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1.302187110380669e-18</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>6.348695648343977e-10</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>1.419019120805965e-12</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>3.250407836921447e-10</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>1.874803040168192e-07</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.01979386771503408</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>3.164399494720874e-05</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.02700637410339728</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.02983617676637429</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>4.239739408424207</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>14.21367747614435</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>29.50497682976653</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>12.46502377219364</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.0522337264299984</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.03113760711214384</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.05151400941685425</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.03832320886844361</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>2.586816657157602</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.355683336134847</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>7.29817515427971</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0.761673707233119</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>18.63945003487361</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0.003684908951075654</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>2.974838523937565</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0.1341312237274176</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.008932929269933703</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.05435855708875618</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>1.999992109017303</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>2.304182778835354</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.8431105646872514</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.3616752254289183</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.81881698992221e-11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.136234549631854e-10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.674272928022674e-09</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.014575963164771e-24</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.171131015304752e-16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.73723001115179e-09</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2278034315874238</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0001564647731187018</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.003317208358111486</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01419481851188359</v>
+      </c>
+      <c r="N6" t="n">
+        <v>99.72579876548777</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.01496780299060151</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.002974762093147577</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0006594408094213483</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.006533537288472143</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.001777042490911657</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.001809613890899194</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3.972885432907312e-06</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.133084832051375e-06</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.540589840819289e-12</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.722863512845998e-10</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.253841340126215e-14</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.1016937874347e-12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.089940554304569e-12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2.267856695659132e-14</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2.679445373414295e-13</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4.610740190417696e-16</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6.200475342784737e-16</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.108161633316674e-19</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8.138339971580556e-21</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>3.197162454810952e-20</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>5.704829009052291e-21</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.101373399701621e-22</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2.639354296873733e-10</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2.715985581298147e-11</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.724998960227571e-11</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1.067353023652214e-21</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4.293782256522262e-19</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1.77590085978608e-18</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>2.955502655611899e-33</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1.681831866855212e-25</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.321021068451449e-18</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>6.338918819125458e-10</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>1.416535170428954e-12</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>3.246937776712726e-10</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1.877125235539119e-07</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.01977873015073647</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>3.165302260050846e-05</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.02701484626612957</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.02983681867384046</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>4.239732134250684</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>14.21367942716803</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>29.50498090409875</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>12.46502550869129</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.05223372742984757</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.0311376114618745</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.05151401661710582</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.03832321422478088</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>2.586817018671305</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.355683525605778</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>7.298176174369305</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0.7616738136899464</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>18.63945264020736</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0.003684909466136214</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2.974838939747374</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.1341312424756862</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.008932939091495404</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.05435856796006761</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>1.999992388567469</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>2.30418310090401</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.8431106825335826</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.3616752759823096</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/log/c670_wt_log.xlsx
+++ b/log/c670_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE6"/>
+  <dimension ref="A1:CE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2104,6 +2104,512 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.058748410068515e-10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.398161279306338e-09</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.648684159392424e-08</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.550359217045385e-24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.890252129824458e-16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.654609060692725e-09</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2494240298614347</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0001869818372195116</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.003904829302170598</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.01662947846207714</v>
+      </c>
+      <c r="N7" t="n">
+        <v>99.69944323157989</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.01635619339710663</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.003318085560377239</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0007256651528104398</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.006362514851932103</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.00180134528534073</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.001837891659904459</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4.137890119078464e-06</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.100774848934135e-06</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.87617926096731e-12</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.595264144534576e-10</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.309761518072442e-14</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.393762874670483e-12</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.136064747761681e-12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2.2827027391778e-14</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2.831834781864891e-13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>4.6586782395932e-16</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5.616311077334383e-16</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.11233340628421e-19</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>8.325965345192357e-21</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>2.691280473689076e-20</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>4.827523493279954e-21</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.087985574620105e-22</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.852026186065441e-06</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>3.913990061825149e-07</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.461398264758099e-07</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1.788540095378721e-16</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1.804963092068116e-14</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>4.651528904454974e-14</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.281085076728163e-29</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>7.57768665315434e-22</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.889935027570907e-15</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>6.317981587697305e-10</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>1.544600554502243e-12</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>3.5856195748437e-10</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>2.144099294670581e-07</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.01992665243398281</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>3.966321742931323e-05</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.02889605237384</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.03229556731351762</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>4.041276275273107</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>14.20581758498021</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>29.53369384332709</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>12.51060501543931</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.05527036064400112</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.03123957934389144</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.04815650032836717</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.03844871584082479</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>2.5952886020246</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.360123230792329</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>7.322076507947115</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.7641682066058152</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>18.70049357317203</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.003336991549543389</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>2.984581412190302</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.134570509131842</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.008323491422675208</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.05437399689901418</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>2.006542195738793</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>2.311725095296766</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.8458709359497624</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.3628592253619311</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.060301228771484e-10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.409693707969709e-09</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.651596134088414e-08</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.495735433793975e-24</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.861762853801977e-16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.636339142753496e-09</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2494233962652553</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0001869773783750931</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.003904822613890462</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01662943896135427</v>
+      </c>
+      <c r="N8" t="n">
+        <v>99.6994439962117</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.01635619338646314</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.00331816231728814</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0007256596318968826</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.006362428872269294</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.001801313301805841</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.001837856298155758</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4.137814590527763e-06</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.100613248277515e-06</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.876129219956474e-12</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.595171001228785e-10</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.309757973069216e-14</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>7.393731422503394e-12</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.13608378402341e-12</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2.282772605323726e-14</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2.83185564231592e-13</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>4.658740640967222e-16</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5.615973750670056e-16</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.112357195650552e-19</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>8.326054159451756e-21</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2.691086836973063e-20</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>4.827239054330904e-21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.08800002654838e-22</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.853459167897335e-06</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>3.916823109472563e-07</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2.463499727209743e-07</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1.792966554405978e-16</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1.809924530686002e-14</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>4.663537550850302e-14</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1.262222281500869e-29</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>7.46649832238714e-22</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5.82793348702725e-15</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>6.318035999086779e-10</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>1.544582134091942e-12</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>3.585667803374677e-10</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>2.144180909841319e-07</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.01992698240228139</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>3.966216004171129e-05</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.02889589380848131</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.03229558035182906</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>4.041276705088187</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>14.20581739260818</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>29.53369356377717</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>12.51060495983317</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.05527036444642731</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.03123957926090293</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.04815650021920672</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.03844871575306168</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>2.595288595901062</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.360123227655681</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>7.32207649141538</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0.7641682048613712</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>18.7004935310943</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0.003336991542041314</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>2.984581405479622</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0.1345705088292629</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.008323491403962512</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.05437399677676604</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>2.006542191227598</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>2.311725090099648</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.8458709340481132</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.3628592245461673</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c670_wt_log.xlsx
+++ b/log/c670_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE8"/>
+  <dimension ref="A1:CE10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2610,6 +2610,512 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.058748410068515e-10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.398161279306338e-09</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.648684159392424e-08</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.550359217045385e-24</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.890252129824458e-16</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.654609060692725e-09</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2494240298614347</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0001869818372195116</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.003904829302170598</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.01662947846207714</v>
+      </c>
+      <c r="N9" t="n">
+        <v>99.69944323157989</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.01635619339710663</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.003318085560377239</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0007256651528104398</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.006362514851932103</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.00180134528534073</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.001837891659904459</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4.137890119078464e-06</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.100774848934135e-06</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.87617926096731e-12</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.595264144534576e-10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.309761518072442e-14</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7.393762874670483e-12</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.136064747761681e-12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2.2827027391778e-14</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2.831834781864891e-13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>4.6586782395932e-16</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5.616311077334383e-16</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.11233340628421e-19</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>8.325965345192357e-21</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>2.691280473689076e-20</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>4.827523493279954e-21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.087985574620105e-22</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.852026186065441e-06</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>3.913990061825149e-07</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>2.461398264758099e-07</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>1.788540095378721e-16</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1.804963092068116e-14</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>4.651528904454974e-14</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1.281085076728163e-29</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>7.57768665315434e-22</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.889935027570907e-15</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>6.317981587697305e-10</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>1.544600554502243e-12</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>3.5856195748437e-10</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>2.144099294670581e-07</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.01992665243398281</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>3.966321742931323e-05</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.02889605237384</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.03229556731351762</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>4.041276275273107</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>14.20581758498021</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>29.53369384332709</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>12.51060501543931</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.05527036064400112</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.03123957934389144</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.04815650032836717</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.03844871584082479</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>2.5952886020246</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.360123230792329</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>7.322076507947115</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.7641682066058152</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>18.70049357317203</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.003336991549543389</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>2.984581412190302</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.134570509131842</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.008323491422675208</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.05437399689901418</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>2.006542195738793</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>2.311725095296766</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.8458709359497624</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.3628592253619311</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.060301228771484e-10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.409693707969709e-09</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.651596134088414e-08</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.495735433793975e-24</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.861762853801977e-16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.636339142753496e-09</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2494233962652553</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0001869773783750931</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.003904822613890462</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01662943896135427</v>
+      </c>
+      <c r="N10" t="n">
+        <v>99.6994439962117</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.01635619338646314</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.00331816231728814</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0007256596318968826</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.006362428872269294</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.001801313301805841</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.001837856298155758</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4.137814590527763e-06</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3.100613248277515e-06</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5.876129219956474e-12</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.595171001228785e-10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.309757973069216e-14</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>7.393731422503394e-12</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.13608378402341e-12</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2.282772605323726e-14</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2.83185564231592e-13</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>4.658740640967222e-16</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5.615973750670056e-16</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.112357195650552e-19</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8.326054159451756e-21</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>2.691086836973063e-20</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>4.827239054330904e-21</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.08800002654838e-22</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.853459167897335e-06</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>3.916823109472563e-07</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2.463499727209743e-07</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>1.792966554405978e-16</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1.809924530686002e-14</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>4.663537550850302e-14</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1.262222281500869e-29</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>7.46649832238714e-22</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.82793348702725e-15</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>6.318035999086779e-10</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>1.544582134091942e-12</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>3.585667803374677e-10</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>2.144180909841319e-07</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.01992698240228139</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>3.966216004171129e-05</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.02889589380848131</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.03229558035182906</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>4.041276705088187</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>14.20581739260818</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>29.53369356377717</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>12.51060495983317</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.05527036444642731</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.03123957926090293</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.04815650021920672</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.03844871575306168</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>2.595288595901062</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.360123227655681</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>7.32207649141538</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0.7641682048613712</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>18.7004935310943</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0.003336991542041314</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2.984581405479622</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.1345705088292629</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.008323491403962512</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.05437399677676604</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>2.006542191227598</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>2.311725090099648</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.8458709340481132</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.3628592245461673</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c670_wt_log.xlsx
+++ b/log/c670_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE10"/>
+  <dimension ref="A1:CE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3116,6 +3116,512 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.058748410068515e-10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.398161279306338e-09</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.648684159392424e-08</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.550359217045385e-24</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.890252129824458e-16</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.654609060692725e-09</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.2494240298614347</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001869818372195116</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.003904829302170598</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.01662947846207714</v>
+      </c>
+      <c r="N11" t="n">
+        <v>99.69944323157989</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.01635619339710663</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.003318085560377239</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.0007256651528104398</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.006362514851932103</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.00180134528534073</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.001837891659904459</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4.137890119078464e-06</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.100774848934135e-06</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.87617926096731e-12</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.595264144534576e-10</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.309761518072442e-14</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7.393762874670483e-12</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.136064747761681e-12</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2.2827027391778e-14</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2.831834781864891e-13</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>4.6586782395932e-16</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5.616311077334383e-16</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.11233340628421e-19</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8.325965345192357e-21</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>2.691280473689076e-20</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>4.827523493279954e-21</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.087985574620105e-22</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1.852026186065441e-06</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>3.913990061825149e-07</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>2.461398264758099e-07</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>1.788540095378721e-16</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1.804963092068116e-14</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>4.651528904454974e-14</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1.281085076728163e-29</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>7.57768665315434e-22</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.889935027570907e-15</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>6.317981587697305e-10</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>1.544600554502243e-12</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>3.5856195748437e-10</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>2.144099294670581e-07</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.01992665243398281</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>3.966321742931323e-05</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.02889605237384</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.03229556731351762</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>4.041276275273107</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>14.20581758498021</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>29.53369384332709</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>12.51060501543931</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0.05527036064400112</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.03123957934389144</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.04815650032836717</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.03844871584082479</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>2.5952886020246</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.360123230792329</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>7.322076507947115</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0.7641682066058152</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>18.70049357317203</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0.003336991549543389</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>2.984581412190302</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0.134570509131842</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.008323491422675208</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0.05437399689901418</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>2.006542195738793</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>2.311725095296766</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.8458709359497624</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.3628592253619311</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.060301228771484e-10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.409693707969709e-09</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.651596134088414e-08</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.495735433793975e-24</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.861762853801977e-16</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.636339142753496e-09</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2494233962652553</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0001869773783750931</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.003904822613890462</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.01662943896135427</v>
+      </c>
+      <c r="N12" t="n">
+        <v>99.6994439962117</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.01635619338646314</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.00331816231728814</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0007256596318968826</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.006362428872269294</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.001801313301805841</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.001837856298155758</v>
+      </c>
+      <c r="U12" t="n">
+        <v>4.137814590527763e-06</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.100613248277515e-06</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5.876129219956474e-12</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.595171001228785e-10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.309757973069216e-14</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>7.393731422503394e-12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.13608378402341e-12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2.282772605323726e-14</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2.83185564231592e-13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>4.658740640967222e-16</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5.615973750670056e-16</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.112357195650552e-19</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8.326054159451756e-21</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>2.691086836973063e-20</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>4.827239054330904e-21</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.08800002654838e-22</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.853459167897335e-06</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>3.916823109472563e-07</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2.463499727209743e-07</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>1.792966554405978e-16</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1.809924530686002e-14</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>4.663537550850302e-14</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1.262222281500869e-29</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>7.46649832238714e-22</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.82793348702725e-15</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>6.318035999086779e-10</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>1.544582134091942e-12</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>3.585667803374677e-10</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>2.144180909841319e-07</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.01992698240228139</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>3.966216004171129e-05</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.02889589380848131</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.03229558035182906</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>4.041276705088187</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>14.20581739260818</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>29.53369356377717</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>12.51060495983317</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.05527036444642731</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0.03123957926090293</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0.04815650021920672</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0.03844871575306168</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>2.595288595901062</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.360123227655681</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>7.32207649141538</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0.7641682048613712</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>18.7004935310943</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0.003336991542041314</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2.984581405479622</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0.1345705088292629</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0.008323491403962512</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0.05437399677676604</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>2.006542191227598</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>2.311725090099648</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0.8458709340481132</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0.3628592245461673</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c670_wt_log.xlsx
+++ b/log/c670_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE12"/>
+  <dimension ref="A1:CE18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3622,6 +3622,1524 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.058752356868225e-10</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.398183986273145e-09</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.648690894971819e-08</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.550375414732477e-24</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.890260978997206e-16</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.654616609461226e-09</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2494247812610523</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0001869824005095886</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.003904841065621161</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.01662953648865823</v>
+      </c>
+      <c r="N13" t="n">
+        <v>99.69970197794265</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.01635520021734778</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.003179012724226624</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0007010374713079966</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.006358595316611482</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.001759012667837894</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.001791261230925868</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4.082465381951302e-06</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.128704223604907e-06</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.680128379197283e-12</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.656028449171903e-10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.256380117516713e-14</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>7.296693294584086e-12</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.168139305733864e-12</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2.297871142451861e-14</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2.90475290348434e-13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>4.436346493851252e-16</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5.846780900661765e-16</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.022289687021776e-19</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>7.812441930254399e-21</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>2.705200239491474e-20</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>5.055043734835318e-21</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.003361642067723e-22</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>3.891977119239852e-07</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>7.342394221442035e-08</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6.259633618909549e-08</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>4.082606334845473e-17</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1.017174461264956e-14</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>1.125516621352134e-14</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>1.582122414053378e-30</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>1.547721942733952e-22</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>8.727453088456319e-16</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>6.373549517461315e-10</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>1.561462218004652e-12</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>3.644151109502455e-10</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>1.987536871347512e-07</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.02001991100480085</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>4.176573388062144e-05</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0.02917642465784381</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.03234505166061196</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>4.041259598040962</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>14.20581477573543</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>29.53360523391496</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>12.5105279537983</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0.05526996418457827</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0.0312393869172865</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0.04815620369851304</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0.038448479008063</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>2.595272615811437</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.360114852833947</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>7.32203140611306</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0.7641634995548022</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>18.70037838364117</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0.003336970994658591</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>2.984563028048122</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0.134569680217153</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0.008323440152420316</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0.05437366197121298</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>2.006529836030036</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>2.311713887107816</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0.8458664314800465</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0.3628573579318669</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.060305176841814e-10</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.40971642855303e-09</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.651602874526969e-08</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.495751367377335e-24</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.861771561669788e-16</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.636346601197257e-09</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2494241466001647</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0001869779408550223</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.003904834360682328</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.01662949691693903</v>
+      </c>
+      <c r="N14" t="n">
+        <v>99.69970231775474</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.01635520111309521</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.003179181758802476</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0007010676130591553</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.006358644078289909</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.001759058382584396</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.001791312379029155</v>
+      </c>
+      <c r="U14" t="n">
+        <v>4.082565410779791e-06</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.12868417133829e-06</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.680305294201353e-12</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.655966673995916e-10</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.256427720512684e-14</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>7.296855439156579e-12</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.168145467239119e-12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2.297905792792314e-14</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2.904769226036907e-13</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>4.436558589634709e-16</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5.846518855477353e-16</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.022389879164292e-19</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>7.812918774439909e-21</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>2.705213772498778e-20</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>5.054989190627768e-21</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.003445278471571e-22</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>3.890262100091964e-07</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>7.338067084817874e-08</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>6.259710659327543e-08</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>4.085889189553324e-17</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1.018707763933611e-14</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>1.126947822676259e-14</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>1.557052957962925e-30</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1.52407406340406e-22</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>8.625211454189536e-16</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>6.373168162464197e-10</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>1.561333536719255e-12</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>3.643937354759583e-10</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>1.987768962807196e-07</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.02001976410774884</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>4.176091622255522e-05</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0.02917607971350293</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.03234499257544882</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>4.041259825878696</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>14.20581472280157</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>29.53360524425497</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>12.51052802099043</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0.05526996852948328</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0.03123938714093081</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0.04815620406203372</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0.03844847929769405</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>2.59527263516201</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.360114863047618</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>7.322031461451318</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0.7641635053110671</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>18.70037852511852</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0.003336971019910824</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>2.984563050632663</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0.1345696812354535</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0.008323440215407022</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0.05437366238267393</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>2.006529851214097</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>2.311713904601506</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0.8458664378810663</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0.3628573606777581</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.060305176841814e-10</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.40971642855303e-09</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.651602874526969e-08</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.495751367377335e-24</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.861771561669788e-16</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.636346601197257e-09</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2494241466001647</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0001869779408550223</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.003904834360682328</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.01662949691693903</v>
+      </c>
+      <c r="N15" t="n">
+        <v>99.69970231775474</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.01635520111309521</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.003179181758802476</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0007010676130591553</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.006358644078289909</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.001759058382584396</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.001791312379029155</v>
+      </c>
+      <c r="U15" t="n">
+        <v>4.082565410779791e-06</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3.12868417133829e-06</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5.680305294201353e-12</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.655966673995916e-10</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.256427720512684e-14</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>7.296855439156579e-12</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1.168145467239119e-12</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2.297905792792314e-14</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>2.904769226036907e-13</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>4.436558589634709e-16</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5.846518855477353e-16</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.022389879164292e-19</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>7.812918774439909e-21</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>2.705213772498778e-20</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>5.054989190627768e-21</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.003445278471571e-22</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>3.890262100091964e-07</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>7.338067084817874e-08</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6.259710659327543e-08</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>4.085889189553324e-17</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1.018707763933611e-14</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>1.126947822676259e-14</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>1.557052957962925e-30</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1.52407406340406e-22</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>8.625211454189536e-16</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>6.373168162464197e-10</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>1.561333536719255e-12</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>3.643937354759583e-10</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1.987768962807196e-07</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.02001976410774884</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>4.176091622255522e-05</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.02917607971350293</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.03234499257544882</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>4.041259825878696</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>14.20581472280157</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>29.53360524425497</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>12.51052802099043</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0.05526996852948328</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0.03123938714093081</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0.04815620406203372</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0.03844847929769405</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>2.59527263516201</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.360114863047618</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>7.322031461451318</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0.7641635053110671</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>18.70037852511852</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0.003336971019910824</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2.984563050632663</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0.1345696812354535</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0.008323440215407022</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0.05437366238267393</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>2.006529851214097</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>2.311713904601506</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0.8458664378810663</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0.3628573606777581</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.060305176841814e-10</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6.40971642855303e-09</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.651602874526969e-08</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.495751367377335e-24</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.861771561669788e-16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.636346601197257e-09</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.2494241466001647</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0001869779408550223</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.003904834360682328</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.01662949691693903</v>
+      </c>
+      <c r="N16" t="n">
+        <v>99.69970231775474</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.01635520111309521</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.003179181758802476</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0007010676130591553</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.006358644078289909</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.001759058382584396</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.001791312379029155</v>
+      </c>
+      <c r="U16" t="n">
+        <v>4.082565410779791e-06</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.12868417133829e-06</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5.680305294201353e-12</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.655966673995916e-10</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.256427720512684e-14</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>7.296855439156579e-12</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.168145467239119e-12</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2.297905792792314e-14</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2.904769226036907e-13</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>4.436558589634709e-16</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5.846518855477353e-16</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.022389879164292e-19</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>7.812918774439909e-21</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>2.705213772498778e-20</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>5.054989190627768e-21</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.003445278471571e-22</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>3.890262100091964e-07</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>7.338067084817874e-08</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>6.259710659327543e-08</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>4.085889189553324e-17</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1.018707763933611e-14</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>1.126947822676259e-14</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.557052957962925e-30</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1.52407406340406e-22</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>8.625211454189536e-16</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>6.373168162464197e-10</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>1.561333536719255e-12</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>3.643937354759583e-10</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1.987768962807196e-07</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.02001976410774884</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>4.176091622255522e-05</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0.02917607971350293</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0.03234499257544882</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>4.041259825878696</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>14.20581472280157</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>29.53360524425497</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>12.51052802099043</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0.05526996852948328</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0.03123938714093081</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0.04815620406203372</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0.03844847929769405</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>2.59527263516201</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.360114863047618</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>7.322031461451318</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0.7641635053110671</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>18.70037852511852</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0.003336971019910824</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>2.984563050632663</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0.1345696812354535</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0.008323440215407022</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0.05437366238267393</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>2.006529851214097</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>2.311713904601506</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0.8458664378810663</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0.3628573606777581</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>sim01</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.058752356868225e-10</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.398183986273145e-09</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.648690894971819e-08</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.550375414732477e-24</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.890260978997206e-16</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.654616609461226e-09</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2494247812610523</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0001869824005095886</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.003904841065621161</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.01662953648865823</v>
+      </c>
+      <c r="N17" t="n">
+        <v>99.69970197794265</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.01635520021734778</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.003179012724226624</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0007010374713079966</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.006358595316611482</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.001759012667837894</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.001791261230925868</v>
+      </c>
+      <c r="U17" t="n">
+        <v>4.082465381951302e-06</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.128704223604907e-06</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5.680128379197283e-12</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.656028449171903e-10</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.256380117516713e-14</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>7.296693294584086e-12</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.168139305733864e-12</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2.297871142451861e-14</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2.90475290348434e-13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>4.436346493851252e-16</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5.846780900661765e-16</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.022289687021776e-19</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>7.812441930254399e-21</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2.705200239491474e-20</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>5.055043734835318e-21</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.003361642067723e-22</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>3.891977119239852e-07</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>7.342394221442035e-08</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>6.259633618909549e-08</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>4.082606334845473e-17</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1.017174461264956e-14</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1.125516621352134e-14</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1.582122414053378e-30</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1.547721942733952e-22</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>8.727453088456319e-16</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>6.373549517461315e-10</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>1.561462218004652e-12</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>3.644151109502455e-10</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>1.987536871347512e-07</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0.02001991100480085</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>4.176573388062144e-05</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0.02917642465784381</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0.03234505166061196</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>4.041259598040962</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>14.20581477573543</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>29.53360523391496</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>12.5105279537983</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0.05526996418457827</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0.0312393869172865</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0.04815620369851304</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0.038448479008063</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>2.595272615811437</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.360114852833947</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>7.32203140611306</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0.7641634995548022</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>18.70037838364117</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0.003336970994658591</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2.984563028048122</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0.134569680217153</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0.008323440152420316</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0.05437366197121298</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>2.006529836030036</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>2.311713887107816</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0.8458664314800465</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0.3628573579318669</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>real01</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.762735382894027e-13</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.888021345790454e-11</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.685633403523741e-10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.318089797733984e-23</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.810840649191584e-16</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.517935081492789e-09</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3806935783860466</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6.784714525392669e-05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.002750591697244985</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.01927347358270692</v>
+      </c>
+      <c r="N18" t="n">
+        <v>99.53020992582238</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.04837328303351805</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.008240816630609889</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.001204503092517113</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.005976156684553802</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.001432914121901095</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.001767475822797119</v>
+      </c>
+      <c r="U18" t="n">
+        <v>6.130997756630224e-06</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.300128312856861e-06</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.093095449302873e-12</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.189156419969253e-10</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>5.002298258251712e-15</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>5.745133291179761e-12</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.151117376163098e-12</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>3.615432271419926e-14</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2.891840283779517e-13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5.09399866023204e-16</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>3.79441874235462e-16</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.054240236345331e-19</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5.122023081585488e-21</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.340898532655147e-21</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1.077800343425215e-21</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.571507019103248e-22</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>5.662727498753006e-15</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2.806302642257388e-15</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>9.258581567893164e-16</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>2.987757515681912e-27</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>5.330646036580806e-25</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>5.028067846045258e-25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>3.316822683283054e-38</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1.384285262517006e-31</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1.081042861621051e-23</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1.206809166233161e-09</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>7.158636633235986e-13</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>3.109895975581811e-10</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1.518264700262069e-07</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0.01993121806729085</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>2.81658706248731e-05</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0.04263707640822038</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0.04393010330013562</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>5.184493026169823</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>14.74761500054201</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>34.41421754601263</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>15.66364769434093</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0.08421833964155351</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0.01238408315009349</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0.1372374052748353</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0.01513610136609564</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>1.743154766165275</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0.9143299017617694</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>5.263554547513744</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>0.5135720871043982</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>13.43724876269676</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>0.0107037477728444</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>2.14504081724761</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0.06983627431664813</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0.002715919752302873</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0.05792083075491034</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>2.231715803847872</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>2.569445473728247</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0.4726996076939084</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0.2025855461544733</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c670_wt_log.xlsx
+++ b/log/c670_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE18"/>
+  <dimension ref="A1:CE22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5140,6 +5140,1018 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0002187696514806217</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.004805690357289716</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.003774083696307444</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.272158400368179e-24</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.958662537462404e-16</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.702701744867416e-09</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3379091759441696</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0002242668092363276</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.004446427272808513</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0169624766918741</v>
+      </c>
+      <c r="N19" t="n">
+        <v>99.60277907367632</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.01444350918518582</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.003835753801337606</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.0007895149069207836</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.004495960566642405</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.002476311278148538</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.002633621906668538</v>
+      </c>
+      <c r="U19" t="n">
+        <v>6.963408361393768e-06</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.475815809518115e-06</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.125908732999112e-11</v>
+      </c>
+      <c r="X19" t="n">
+        <v>4.213371391264864e-11</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.549867442505532e-14</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.43443325578896e-11</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2.269711475350513e-12</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>4.791402157121789e-14</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>5.613012440265076e-13</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9.535325177487603e-16</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.380696087545283e-16</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>2.337778444275849e-19</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1.688072505102642e-20</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>6.545496046945554e-21</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1.545953246010064e-21</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2.230934676418452e-22</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.0001317560098680241</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>4.49336697290326e-05</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2.023357850442716e-05</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>3.091602936445699e-08</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>5.892382467673395e-07</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>4.922943368221065e-07</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.004799997818235e-28</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>2.489477049268304e-20</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>2.304566857289884e-13</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>9.83495412195984e-10</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>2.1353853409426e-12</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>4.538039206180214e-10</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>2.017090778747964e-07</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0.02030878157423894</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2.939097623465182e-05</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0.01920947283492153</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0.02324772623452591</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>2.759255292275696</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>13.97528799475155</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>29.41822451795814</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>12.85843756469487</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0.03786736266199367</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0.03230679498125815</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0.02128382733410366</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0.03976220535943042</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>2.68394893732106</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.406587977240033</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>7.572215483683746</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>0.7902737738490411</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>19.33934363987014</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0.001250052059568174</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>3.086541243534861</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0.1391677184230541</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0.004700327953241502</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0.05523695706841406</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>2.075090018686699</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>2.390498446742871</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0.8746987450669885</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>0.3752244312659777</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.082223131145835e-06</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0003261704253522566</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0005575343355043558</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9.4488470050409e-24</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.776603934747174e-16</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.933100758304039e-09</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3224144641064289</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0002103775267821231</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.004418646576149828</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0168194808721218</v>
+      </c>
+      <c r="N20" t="n">
+        <v>99.62599684560043</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.0144454607632095</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.003849729577364863</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.0008089337779777348</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.004719773215353915</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.002529038311810975</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.002694641775603577</v>
+      </c>
+      <c r="U20" t="n">
+        <v>7.167848837658167e-06</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.650963248018005e-06</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.159993422860609e-11</v>
+      </c>
+      <c r="X20" t="n">
+        <v>5.097004171555982e-11</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2.612433822159539e-14</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.464207292068712e-11</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2.296378684501675e-12</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>4.765712081705362e-14</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>5.668814954408295e-13</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>9.556595961712649e-16</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.632475942533139e-16</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>2.328687435181569e-19</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1.705677163474752e-20</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6.245413049255446e-21</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1.532032385965091e-21</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2.234752777401798e-22</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.0001290063043659055</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>4.469072078621889e-05</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2.030306225803073e-05</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>1.002564885609945e-09</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>4.371955995872612e-08</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>7.440178361025754e-08</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.377218306743954e-27</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>3.845950244668271e-20</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>3.059460950907242e-13</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>1.112162446918463e-09</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>2.394519725267812e-12</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>5.421200873700787e-10</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.936313574778267e-07</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0.01992109401100118</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>2.839380283826013e-05</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0.01918772918735114</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0.02321779798017765</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>2.758938377957631</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>13.97536181991374</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>29.41845648206464</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>12.85858029038926</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0.03786751497278817</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0.03230715315641945</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0.02128406524945277</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0.039762646862688</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2.683979109914763</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.406603565775683</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>7.572299794853681</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0.7902826380557874</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>19.33955923486108</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0.001250066044055055</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>3.086575831449337</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0.1391692785947791</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0.004580295016455876</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0.05520660532335546</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>2.075113240033407</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>2.390529322091904</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0.8747088432808375</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>0.3752284947446399</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0001111453056243804</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.002684598385341617</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.00220580660641702</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.83737265498306e-24</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.084158607243657e-16</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.733525109045899e-09</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3353130532243919</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0002232370146485415</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.00441799901386755</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.01687465853393527</v>
+      </c>
+      <c r="N21" t="n">
+        <v>99.60915567551437</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.01444339917934262</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.003852363046750538</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.000799251708762255</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.004565177684342068</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.002494569864499093</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.002655788650858655</v>
+      </c>
+      <c r="U21" t="n">
+        <v>7.047714170134151e-06</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.517850555087745e-06</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.141591144277226e-11</v>
+      </c>
+      <c r="X21" t="n">
+        <v>4.543774808992786e-11</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.577954913306402e-14</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.446620041893049e-11</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2.278213507829893e-12</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>4.775575091653273e-14</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>5.632090137746701e-13</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>9.541585641423267e-16</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.480498203484395e-16</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>2.334624102520499e-19</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1.695737210497396e-20</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>6.344431211564513e-21</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1.4554826788923e-21</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>2.232338536542725e-22</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.0001301890690467675</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>4.441249732172923e-05</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2.010732799400276e-05</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>1.641632603665381e-08</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>3.385707741736545e-07</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.876031774774084e-07</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.009601731329029e-28</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>2.684603312366348e-20</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>2.448412462300106e-13</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>1.036345255250987e-09</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>2.266101474948724e-12</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>4.821136154536805e-10</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>2.002772462966745e-07</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0.02013045952871059</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2.983577298340046e-05</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0.01918357461825181</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0.02323268272068117</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>2.759160070827526</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>13.97532261365934</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>29.41831799602314</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>12.85849259395203</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0.03786746265040297</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0.03230693344570094</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0.02128391913935923</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0.03976238038053001</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>2.683960582904621</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.406593994602144</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>7.572248203664605</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0.7902772167079358</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>19.33942573590907</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0.001250057458904959</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>3.086554595196537</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0.1391683206443111</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0.004662093755746183</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0.05522820775515008</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>2.07509898400424</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>2.390511051989986</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0.8747033573939547</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>0.3752262309056184</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.008335671306191e-05</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.001644021464521603</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001873690774255947</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.750543294102228e-24</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.278067573316216e-16</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.794499639635426e-09</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3324427731831436</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0002207344829354637</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.004425654767257977</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.01685158779340796</v>
+      </c>
+      <c r="N22" t="n">
+        <v>99.61330524649246</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.01444309629403169</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.003839623418269519</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.0008041425912762414</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.004689497861792323</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.002511837115143186</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.002676217701070911</v>
+      </c>
+      <c r="U22" t="n">
+        <v>7.123058096558634e-06</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.63049306852524e-06</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.150243304972965e-11</v>
+      </c>
+      <c r="X22" t="n">
+        <v>5.204530922933552e-11</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.592046786233818e-14</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.454785725487215e-11</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2.285561172722775e-12</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>4.757155625601668e-14</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>5.644825610615992e-13</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>9.520802604541514e-16</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.694931218881873e-16</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>2.322691280922511e-19</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1.695903962367921e-20</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>6.159455631507837e-21</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1.447208485328036e-21</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2.224791460479992e-22</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.0001413761606251288</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>4.885427742855295e-05</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>2.280683898207794e-05</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>7.977309702924985e-09</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>2.309738225223669e-07</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.639926253800346e-07</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1.026170267190172e-27</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>3.221759699611972e-20</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>2.876830439743688e-13</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1.030718517225947e-09</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>2.252017732304314e-12</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>4.887114519919899e-10</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>1.945880217795968e-07</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0.01995537488201931</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>3.055507423184298e-05</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0.01920348000395377</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0.02322526546783796</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>2.758987098541185</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>13.97539468475708</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>29.41849734301321</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>12.85858401137814</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0.03786756319096649</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0.03230716267391943</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0.02128407174546988</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0.0397626568681412</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>2.68397978055518</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.406604168522678</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>7.57230205032309</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0.7902828752169578</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>19.33956573449906</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0.001250066457532924</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>3.086576826551833</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0.1391693231701641</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0.004441931860684059</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0.05517478437648411</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>2.075113923362007</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>2.390511017941404</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0.8747028235567369</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>0.3752247269562757</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c670_wt_log.xlsx
+++ b/log/c670_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE22"/>
+  <dimension ref="A1:CE18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5140,1018 +5140,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0002187696514806217</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.004805690357289716</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.003774083696307444</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5.272158400368179e-24</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.958662537462404e-16</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.702701744867416e-09</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.3379091759441696</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0002242668092363276</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.004446427272808513</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.0169624766918741</v>
-      </c>
-      <c r="N19" t="n">
-        <v>99.60277907367632</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.01444350918518582</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.003835753801337606</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.0007895149069207836</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.004495960566642405</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.002476311278148538</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.002633621906668538</v>
-      </c>
-      <c r="U19" t="n">
-        <v>6.963408361393768e-06</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.475815809518115e-06</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.125908732999112e-11</v>
-      </c>
-      <c r="X19" t="n">
-        <v>4.213371391264864e-11</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2.549867442505532e-14</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.43443325578896e-11</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>2.269711475350513e-12</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>4.791402157121789e-14</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>5.613012440265076e-13</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>9.535325177487603e-16</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1.380696087545283e-16</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>2.337778444275849e-19</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1.688072505102642e-20</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>6.545496046945554e-21</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1.545953246010064e-21</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>2.230934676418452e-22</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0.0001317560098680241</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>4.49336697290326e-05</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>2.023357850442716e-05</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>3.091602936445699e-08</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>5.892382467673395e-07</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>4.922943368221065e-07</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.004799997818235e-28</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>2.489477049268304e-20</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>2.304566857289884e-13</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>9.83495412195984e-10</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>2.1353853409426e-12</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>4.538039206180214e-10</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>2.017090778747964e-07</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0.02030878157423894</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>2.939097623465182e-05</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>0.01920947283492153</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0.02324772623452591</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>2.759255292275696</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>13.97528799475155</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>29.41822451795814</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>12.85843756469487</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>0.03786736266199367</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0.03230679498125815</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0.02128382733410366</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>0.03976220535943042</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>2.68394893732106</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>1.406587977240033</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>7.572215483683746</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>0.7902737738490411</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>19.33934363987014</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>0.001250052059568174</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>3.086541243534861</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>0.1391677184230541</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0.004700327953241502</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0.05523695706841406</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>2.075090018686699</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>2.390498446742871</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>0.8746987450669885</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>0.3752244312659777</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6.082223131145835e-06</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.0003261704253522566</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.0005575343355043558</v>
-      </c>
-      <c r="F20" t="n">
-        <v>9.4488470050409e-24</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.776603934747174e-16</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.933100758304039e-09</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.3224144641064289</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.0002103775267821231</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.004418646576149828</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.0168194808721218</v>
-      </c>
-      <c r="N20" t="n">
-        <v>99.62599684560043</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.0144454607632095</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.003849729577364863</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.0008089337779777348</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.004719773215353915</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.002529038311810975</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.002694641775603577</v>
-      </c>
-      <c r="U20" t="n">
-        <v>7.167848837658167e-06</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.650963248018005e-06</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.159993422860609e-11</v>
-      </c>
-      <c r="X20" t="n">
-        <v>5.097004171555982e-11</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>2.612433822159539e-14</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.464207292068712e-11</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>2.296378684501675e-12</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>4.765712081705362e-14</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>5.668814954408295e-13</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>9.556595961712649e-16</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.632475942533139e-16</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>2.328687435181569e-19</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1.705677163474752e-20</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>6.245413049255446e-21</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1.532032385965091e-21</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>2.234752777401798e-22</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0.0001290063043659055</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>4.469072078621889e-05</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>2.030306225803073e-05</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>1.002564885609945e-09</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>4.371955995872612e-08</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>7.440178361025754e-08</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>1.377218306743954e-27</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>3.845950244668271e-20</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>3.059460950907242e-13</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>1.112162446918463e-09</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>2.394519725267812e-12</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>5.421200873700787e-10</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>1.936313574778267e-07</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0.01992109401100118</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>2.839380283826013e-05</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>0.01918772918735114</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0.02321779798017765</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>2.758938377957631</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>13.97536181991374</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>29.41845648206464</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>12.85858029038926</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>0.03786751497278817</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0.03230715315641945</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0.02128406524945277</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>0.039762646862688</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>2.683979109914763</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>1.406603565775683</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>7.572299794853681</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>0.7902826380557874</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>19.33955923486108</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>0.001250066044055055</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>3.086575831449337</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>0.1391692785947791</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0.004580295016455876</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0.05520660532335546</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>2.075113240033407</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>2.390529322091904</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0.8747088432808375</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>0.3752284947446399</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0001111453056243804</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.002684598385341617</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.00220580660641702</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5.83737265498306e-24</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.084158607243657e-16</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.733525109045899e-09</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.3353130532243919</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.0002232370146485415</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.00441799901386755</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.01687465853393527</v>
-      </c>
-      <c r="N21" t="n">
-        <v>99.60915567551437</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.01444339917934262</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.003852363046750538</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.000799251708762255</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.004565177684342068</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.002494569864499093</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.002655788650858655</v>
-      </c>
-      <c r="U21" t="n">
-        <v>7.047714170134151e-06</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.517850555087745e-06</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.141591144277226e-11</v>
-      </c>
-      <c r="X21" t="n">
-        <v>4.543774808992786e-11</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>2.577954913306402e-14</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.446620041893049e-11</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>2.278213507829893e-12</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>4.775575091653273e-14</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>5.632090137746701e-13</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>9.541585641423267e-16</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.480498203484395e-16</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>2.334624102520499e-19</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1.695737210497396e-20</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>6.344431211564513e-21</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1.4554826788923e-21</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>2.232338536542725e-22</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0.0001301890690467675</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>4.441249732172923e-05</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>2.010732799400276e-05</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>1.641632603665381e-08</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>3.385707741736545e-07</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.876031774774084e-07</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8.009601731329029e-28</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>2.684603312366348e-20</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>2.448412462300106e-13</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>1.036345255250987e-09</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>2.266101474948724e-12</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>4.821136154536805e-10</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>2.002772462966745e-07</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0.02013045952871059</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>2.983577298340046e-05</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>0.01918357461825181</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0.02323268272068117</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>2.759160070827526</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>13.97532261365934</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>29.41831799602314</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>12.85849259395203</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>0.03786746265040297</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0.03230693344570094</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0.02128391913935923</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>0.03976238038053001</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>2.683960582904621</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>1.406593994602144</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>7.572248203664605</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>0.7902772167079358</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>19.33942573590907</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>0.001250057458904959</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>3.086554595196537</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>0.1391683206443111</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0.004662093755746183</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0.05522820775515008</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>2.07509898400424</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>2.390511051989986</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0.8747033573939547</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>0.3752262309056184</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5.008335671306191e-05</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.001644021464521603</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.001873690774255947</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6.750543294102228e-24</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.278067573316216e-16</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.794499639635426e-09</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.3324427731831436</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.0002207344829354637</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.004425654767257977</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.01685158779340796</v>
-      </c>
-      <c r="N22" t="n">
-        <v>99.61330524649246</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.01444309629403169</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.003839623418269519</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.0008041425912762414</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.004689497861792323</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.002511837115143186</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.002676217701070911</v>
-      </c>
-      <c r="U22" t="n">
-        <v>7.123058096558634e-06</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.63049306852524e-06</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.150243304972965e-11</v>
-      </c>
-      <c r="X22" t="n">
-        <v>5.204530922933552e-11</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>2.592046786233818e-14</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1.454785725487215e-11</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>2.285561172722775e-12</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>4.757155625601668e-14</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>5.644825610615992e-13</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>9.520802604541514e-16</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.694931218881873e-16</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>2.322691280922511e-19</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1.695903962367921e-20</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>6.159455631507837e-21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1.447208485328036e-21</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>2.224791460479992e-22</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0.0001413761606251288</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>4.885427742855295e-05</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>2.280683898207794e-05</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>7.977309702924985e-09</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>2.309738225223669e-07</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.639926253800346e-07</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>1.026170267190172e-27</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>3.221759699611972e-20</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>2.876830439743688e-13</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>1.030718517225947e-09</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>2.252017732304314e-12</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>4.887114519919899e-10</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>1.945880217795968e-07</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0.01995537488201931</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>3.055507423184298e-05</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>0.01920348000395377</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>0.02322526546783796</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>2.758987098541185</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>13.97539468475708</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>29.41849734301321</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>12.85858401137814</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>0.03786756319096649</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0.03230716267391943</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0.02128407174546988</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>0.0397626568681412</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>2.68397978055518</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>1.406604168522678</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>7.57230205032309</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>0.7902828752169578</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>19.33956573449906</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>0.001250066457532924</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>3.086576826551833</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>0.1391693231701641</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0.004441931860684059</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0.05517478437648411</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>2.075113923362007</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>2.390511017941404</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0.8747028235567369</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>0.3752247269562757</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
